--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -459,10 +459,8 @@
           <t>Report Activity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
+      <c r="G1" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
@@ -565,7 +563,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>855</v>
+        <v>6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -582,34 +580,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="N2" t="n">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>1.2</v>
       </c>
       <c r="R2" t="n">
-        <v>6989</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +646,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>717</v>
+        <v>14</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +668,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +727,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>667</v>
+        <v>19</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -751,29 +749,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="S4" t="n">
         <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -812,7 +810,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>845</v>
+        <v>23</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -829,19 +827,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:14</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="N5" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -850,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>88</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>7000</v>
+        <v>76.86</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +893,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>851</v>
+        <v>24</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -912,31 +910,31 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N6" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7055</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -978,7 +976,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>765</v>
+        <v>53</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +998,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10000</v>
+        <v>87.5</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1059,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>852</v>
+        <v>55</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1078,31 +1076,31 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:00:08</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="N8" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>60</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
-        <v>9237</v>
+        <v>87.16</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1142,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>830</v>
+        <v>69</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1152,43 +1150,43 @@
         </is>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>00:02:13</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>00:00:26</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>78</v>
+      </c>
+      <c r="N9" t="n">
+        <v>79</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>00:00:14</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>00:03:12</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>00:00:55</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>53</v>
-      </c>
-      <c r="N9" t="n">
-        <v>57</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>526</v>
+        <v>1.27</v>
       </c>
       <c r="R9" t="n">
-        <v>2830</v>
+        <v>60.26</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1227,7 +1225,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>784</v>
+        <v>70</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,14 +1247,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1268,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3077</v>
+        <v>44.44</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1310,7 +1308,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1389,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1470,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1553,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1636,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>718</v>
+        <v>172</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1655,34 +1653,34 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:03:41</t>
+          <t>00:01:48</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2500</v>
+        <v>28.57</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1719,7 +1717,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>372</v>
+        <v>176</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1798,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>373</v>
+        <v>177</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1879,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1962,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1981,31 +1979,31 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:19</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2043,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>471</v>
+        <v>241</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2126,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>708</v>
+        <v>243</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2150,14 +2148,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2169,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10000</v>
+        <v>80</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2211,7 +2209,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>733</v>
+        <v>247</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2237,10 +2235,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8000</v>
+        <v>77.78</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2294,7 +2292,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>800</v>
+        <v>268</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2311,31 +2309,31 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:03:35</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:03:18</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N23" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3000</v>
+        <v>63.64</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2375,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>488</v>
+        <v>269</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2458,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>724</v>
+        <v>270</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2482,7 +2480,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -2501,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2500</v>
+        <v>75</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2543,7 +2541,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>762</v>
+        <v>272</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2563,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7143</v>
+        <v>70</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2624,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>491</v>
+        <v>275</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2707,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>506</v>
+        <v>291</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2790,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>839</v>
+        <v>292</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2809,34 +2807,34 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:57</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="N29" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="R29" t="n">
-        <v>4875</v>
+        <v>37.41</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2873,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>847</v>
+        <v>295</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2881,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:08:27</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:03:38</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:03:42</t>
+          <t>00:00:57</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="N30" t="n">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="O30" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>3308</v>
+        <v>53.38</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="U30" t="n">
-        <v>837</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2956,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>681</v>
+        <v>321</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2975,28 +2973,28 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>00:06:03</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3041,7 +3039,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>739</v>
+        <v>311</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3063,14 +3061,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3082,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3124,7 +3122,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>838</v>
+        <v>314</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3141,34 +3139,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>00:02:34</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:02:47</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>78</v>
       </c>
       <c r="N33" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O33" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1034</v>
+        <v>15.22</v>
       </c>
       <c r="R33" t="n">
-        <v>4103</v>
+        <v>44.87</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3207,7 +3205,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>713</v>
+        <v>319</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3224,31 +3222,31 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>00:07:28</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:03:15</t>
+          <t>00:02:34</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6667</v>
+        <v>20</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3288,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>748</v>
+        <v>320</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3307,19 +3305,19 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:11:27</t>
+          <t>00:07:54</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:01:53</t>
+          <t>00:02:06</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
@@ -3328,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1429</v>
+        <v>9.09</v>
       </c>
       <c r="R35" t="n">
-        <v>1667</v>
+        <v>20</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3373,7 +3371,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>819</v>
+        <v>356</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3379,43 @@
         </is>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>00:05:55</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>00:01:13</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>54</v>
+      </c>
+      <c r="N36" t="n">
+        <v>57</v>
+      </c>
+      <c r="O36" t="n">
         <v>3</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>00:10:43</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>00:07:32</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>00:05:25</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>32</v>
-      </c>
-      <c r="N36" t="n">
-        <v>42</v>
-      </c>
-      <c r="O36" t="n">
-        <v>7</v>
-      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1667</v>
+        <v>5.26</v>
       </c>
       <c r="R36" t="n">
-        <v>1250</v>
+        <v>40.74</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3454,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>812</v>
+        <v>325</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,40 +3462,40 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:10:07</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:04:57</t>
+          <t>00:00:01</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:06:00</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N37" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2143</v>
+        <v>24.39</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3537,7 +3535,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>806</v>
+        <v>296</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3543,49 @@
         </is>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>00:00:49</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>00:01:16</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>12</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>00:08:26</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>00:03:37</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>00:04:15</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>22</v>
-      </c>
       <c r="N38" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O38" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>2118</v>
+        <v>2.82</v>
       </c>
       <c r="R38" t="n">
-        <v>909</v>
+        <v>25</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="U38" t="n">
-        <v>5780</v>
+        <v>89.89</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3616,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>836</v>
+        <v>326</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3624,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:08:45</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:04:42</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:03:17</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O39" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>1720</v>
+        <v>0.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1867</v>
+        <v>27.5</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="U39" t="n">
-        <v>2975</v>
+        <v>70.20999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3697,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>835</v>
+        <v>327</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,49 +3705,49 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:08:30</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:04:17</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:03:45</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="O40" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1761</v>
+        <v>5.83</v>
       </c>
       <c r="R40" t="n">
-        <v>2857</v>
+        <v>27.5</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="U40" t="n">
-        <v>2981</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3780,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>842</v>
+        <v>353</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3788,49 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>00:10:01</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:04:32</t>
+          <t>00:01:48</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:03:06</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="N41" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O41" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1315</v>
+        <v>3.81</v>
       </c>
       <c r="R41" t="n">
-        <v>3131</v>
+        <v>59.63</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="U41" t="n">
-        <v>3302</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3863,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>773</v>
+        <v>354</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,31 +3880,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:01:04</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O42" t="n">
         <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>909</v>
+        <v>7.14</v>
       </c>
       <c r="R42" t="n">
-        <v>4000</v>
+        <v>83.33</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3946,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>813</v>
+        <v>355</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,31 +3963,31 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:02:18</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N43" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>714</v>
+        <v>2.04</v>
       </c>
       <c r="R43" t="n">
-        <v>5769</v>
+        <v>54.17</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4029,7 +4027,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>786</v>
+        <v>328</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4046,40 +4044,40 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:01:55</t>
+          <t>00:03:12</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N44" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>889</v>
+        <v>1.28</v>
       </c>
       <c r="R44" t="n">
-        <v>6923</v>
+        <v>44.44</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U44" t="n">
-        <v>6222</v>
+        <v>29.49</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4110,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>824</v>
+        <v>357</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4120,43 +4118,43 @@
         </is>
       </c>
       <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>00:01:40</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>00:01:02</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>48</v>
+      </c>
+      <c r="N45" t="n">
+        <v>50</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>00:00:33</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>00:06:57</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>00:01:16</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>43</v>
-      </c>
-      <c r="N45" t="n">
-        <v>44</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
       <c r="Q45" t="n">
-        <v>227</v>
+        <v>4.08</v>
       </c>
       <c r="R45" t="n">
-        <v>3488</v>
+        <v>47.92</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4193,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>591</v>
+        <v>358</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4276,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>763</v>
+        <v>360</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4298,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>7143</v>
+        <v>90.91</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4359,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>792</v>
+        <v>370</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4369,43 +4367,43 @@
         </is>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>00:01:18</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>00:02:11</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>10</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="R48" t="n">
+        <v>40</v>
+      </c>
+      <c r="S48" t="n">
         <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>00:01:21</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>00:01:47</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>15</v>
-      </c>
-      <c r="N48" t="n">
-        <v>16</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>6667</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4442,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>769</v>
+        <v>371</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4464,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N49" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>5556</v>
+        <v>60.87</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4527,7 +4525,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>727</v>
+        <v>373</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,40 +4533,40 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:27</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:04:40</t>
+          <t>00:14:21</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:06:29</t>
+          <t>00:06:57</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O50" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4608,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>770</v>
+        <v>374</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4625,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:01:43</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:03:16</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>25</v>
+        <v>5.56</v>
       </c>
       <c r="R51" t="n">
-        <v>5556</v>
+        <v>17.65</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4691,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>606</v>
+        <v>375</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4774,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>698</v>
+        <v>376</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4784,11 +4782,11 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4798,7 +4796,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:02:40</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -4817,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4857,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>782</v>
+        <v>379</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4881,14 +4879,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4900,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>7500</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4940,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>683</v>
+        <v>383</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4962,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:01</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5023,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>615</v>
+        <v>392</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5042,7 +5040,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5051,22 +5049,22 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5108,7 +5106,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>617</v>
+        <v>395</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5130,14 +5128,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5149,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5191,7 +5189,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>741</v>
+        <v>396</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5217,10 +5215,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5232,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5272,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>787</v>
+        <v>403</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5291,40 +5289,40 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N59" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="R59" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
         <v>2</v>
       </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>10</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3077</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>5</v>
-      </c>
       <c r="U59" t="n">
-        <v>25</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5355,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>686</v>
+        <v>405</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,31 +5372,31 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:03:33</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5438,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>703</v>
+        <v>409</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5448,40 +5446,40 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>00:08:52</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:07:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:08:39</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N61" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5523,7 +5521,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>801</v>
+        <v>415</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,31 +5538,31 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:02:23</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N62" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>870</v>
+        <v>5.56</v>
       </c>
       <c r="R62" t="n">
-        <v>2381</v>
+        <v>23.53</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="N2" t="n">
-        <v>316</v>
+        <v>633</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>32</v>
       </c>
       <c r="R2" t="n">
-        <v>6989</v>
+        <v>7076</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:01</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -834,14 +834,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="R5" t="n">
-        <v>7000</v>
+        <v>7011</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="N6" t="n">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
@@ -933,13 +933,13 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="R6" t="n">
-        <v>7055</v>
+        <v>6651</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1083,14 +1083,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="N8" t="n">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1099,10 +1099,10 @@
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R8" t="n">
-        <v>9237</v>
+        <v>9234</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:30</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1166,14 +1166,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="N9" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>526</v>
+        <v>326</v>
       </c>
       <c r="R9" t="n">
-        <v>2830</v>
+        <v>3295</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3077</v>
+        <v>3810</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>405</v>
+        <v>665</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8000</v>
+        <v>9091</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7143</v>
+        <v>7778</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2814,14 +2814,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N29" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4875</v>
+        <v>5612</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:08:27</t>
+          <t>00:09:22</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:03:38</t>
+          <t>00:04:37</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:03:42</t>
+          <t>00:06:10</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="N30" t="n">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="O30" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2797</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1921</v>
+      </c>
+      <c r="S30" t="n">
         <v>3</v>
       </c>
-      <c r="Q30" t="n">
-        <v>18</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3308</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
       <c r="T30" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U30" t="n">
-        <v>837</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:05:29</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>3333</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:03:15</t>
+          <t>00:02:55</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
         <v>2</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>3333</v>
       </c>
       <c r="R34" t="n">
-        <v>6667</v>
+        <v>5000</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,40 +3298,40 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:18</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:11:27</t>
+          <t>00:05:57</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:01:53</t>
+          <t>00:02:52</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1429</v>
+        <v>15</v>
       </c>
       <c r="R35" t="n">
-        <v>1667</v>
+        <v>1250</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3385,36 +3385,36 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:10:43</t>
+          <t>00:10:44</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:07:32</t>
+          <t>00:05:09</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:05:25</t>
+          <t>00:06:57</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N36" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="O36" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1667</v>
+        <v>2222</v>
       </c>
       <c r="R36" t="n">
-        <v>1250</v>
+        <v>870</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,40 +3464,40 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:10:07</t>
+          <t>00:09:04</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:04:57</t>
+          <t>00:06:02</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:06:00</t>
+          <t>00:08:16</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N37" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1389</v>
+        <v>2625</v>
       </c>
       <c r="R37" t="n">
-        <v>2143</v>
+        <v>1154</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:08:26</t>
+          <t>00:09:21</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:03:37</t>
+          <t>00:04:35</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:04:15</t>
+          <t>00:05:47</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N38" t="n">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="O38" t="n">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2118</v>
+        <v>3026</v>
       </c>
       <c r="R38" t="n">
-        <v>909</v>
+        <v>556</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="U38" t="n">
-        <v>5780</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="39">
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:08:45</t>
+          <t>00:09:04</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:04:42</t>
+          <t>00:04:38</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:03:17</t>
+          <t>00:05:34</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="N39" t="n">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="O39" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1720</v>
+        <v>2222</v>
       </c>
       <c r="R39" t="n">
-        <v>1867</v>
+        <v>1250</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="U39" t="n">
-        <v>2975</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,49 +3707,49 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:08:30</t>
+          <t>00:09:12</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:04:17</t>
+          <t>00:04:27</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:03:45</t>
+          <t>00:06:20</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="N40" t="n">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="O40" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1761</v>
+        <v>2622</v>
       </c>
       <c r="R40" t="n">
-        <v>2857</v>
+        <v>1460</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="U40" t="n">
-        <v>2981</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>00:10:01</t>
+          <t>00:09:15</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:04:32</t>
+          <t>00:04:20</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:03:06</t>
+          <t>00:05:36</t>
         </is>
       </c>
       <c r="M41" t="n">
+        <v>168</v>
+      </c>
+      <c r="N41" t="n">
+        <v>432</v>
+      </c>
+      <c r="O41" t="n">
         <v>99</v>
       </c>
-      <c r="N41" t="n">
-        <v>215</v>
-      </c>
-      <c r="O41" t="n">
-        <v>28</v>
-      </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q41" t="n">
-        <v>1315</v>
+        <v>2335</v>
       </c>
       <c r="R41" t="n">
-        <v>3131</v>
+        <v>2024</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="U41" t="n">
-        <v>3302</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,31 +3882,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="R42" t="n">
-        <v>4000</v>
+        <v>5161</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3970,14 +3970,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N43" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O43" t="n">
         <v>2</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>714</v>
+        <v>444</v>
       </c>
       <c r="R43" t="n">
-        <v>5769</v>
+        <v>5476</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:01:55</t>
+          <t>00:02:25</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4058,16 +4058,16 @@
         <v>13</v>
       </c>
       <c r="N44" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>889</v>
+        <v>495</v>
       </c>
       <c r="R44" t="n">
         <v>6923</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="U44" t="n">
-        <v>6222</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4124,39 +4124,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:06:57</t>
+          <t>00:02:31</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N45" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
       <c r="Q45" t="n">
-        <v>227</v>
+        <v>441</v>
       </c>
       <c r="R45" t="n">
-        <v>3488</v>
+        <v>3846</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>763</v>
+        <v>788</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>7143</v>
+        <v>7917</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4373,36 +4373,36 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:01:47</t>
+          <t>00:01:33</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N48" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>6667</v>
+        <v>4828</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N49" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>5556</v>
+        <v>3846</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,31 +4535,31 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:36:58</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:04:40</t>
+          <t>00:09:56</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:06:29</t>
+          <t>00:17:09</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O50" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:01:43</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:03:16</t>
+          <t>00:02:19</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R51" t="n">
-        <v>5556</v>
+        <v>5625</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4784,11 +4784,11 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:02:40</t>
+          <t>00:02:57</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4881,14 +4881,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>7500</v>
+        <v>7647</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5213,14 +5213,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>10000</v>
+        <v>6667</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5291,40 +5291,40 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N59" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>10</v>
+        <v>667</v>
       </c>
       <c r="R59" t="n">
-        <v>3077</v>
+        <v>2500</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U59" t="n">
-        <v>25</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5365,11 +5365,11 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:07:31</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5379,14 +5379,14 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:03:33</t>
+          <t>00:06:26</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5448,37 +5448,37 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>00:00:51</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>00:08:27</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>00:09:24</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>10</v>
+      </c>
+      <c r="N61" t="n">
+        <v>13</v>
+      </c>
+      <c r="O61" t="n">
         <v>2</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>00:08:52</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>00:07:10</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>00:08:39</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1</v>
-      </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>20</v>
+        <v>1538</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5545,14 +5545,14 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N62" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O62" t="n">
         <v>2</v>
@@ -5561,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>870</v>
+        <v>741</v>
       </c>
       <c r="R62" t="n">
-        <v>2381</v>
+        <v>2000</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -582,34 +582,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:14</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>626</v>
+        <v>1.632</v>
       </c>
       <c r="N2" t="n">
-        <v>633</v>
+        <v>1.662</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="R2" t="n">
-        <v>7076</v>
+        <v>5738</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10000</v>
+        <v>6957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>673</v>
+        <v>808</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>845</v>
+        <v>804</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -829,34 +829,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="N5" t="n">
-        <v>181</v>
+        <v>396</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R5" t="n">
-        <v>7011</v>
+        <v>5876</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>849</v>
+        <v>803</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -912,34 +912,34 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="N6" t="n">
-        <v>234</v>
+        <v>485</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="R6" t="n">
-        <v>6651</v>
+        <v>6224</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10000</v>
+        <v>8971</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1057,11 +1057,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>852</v>
+        <v>775</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:00:08</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="N8" t="n">
-        <v>254</v>
+        <v>450</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="R8" t="n">
-        <v>9234</v>
+        <v>8927</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>831</v>
+        <v>759</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:03:12</t>
+          <t>00:06:17</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="N9" t="n">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>326</v>
+        <v>963</v>
       </c>
       <c r="R9" t="n">
-        <v>3295</v>
+        <v>2030</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>781</v>
+        <v>29</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1244,34 +1244,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:35</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:02:19</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>3810</v>
+        <v>2456</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>125</v>
+        <v>696</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>170</v>
+        <v>642</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>172</v>
+        <v>640</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>181</v>
+        <v>629</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>695</v>
+        <v>573</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>665</v>
+        <v>384</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>463</v>
+        <v>297</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>698</v>
+        <v>294</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2145,31 +2145,31 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="R21" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>751</v>
+        <v>290</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:08</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9091</v>
+        <v>7333</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>779</v>
+        <v>272</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2311,28 +2311,28 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:03:35</t>
+          <t>00:08:32</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:03:18</t>
+          <t>00:03:19</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>909</v>
+        <v>1667</v>
       </c>
       <c r="R23" t="n">
         <v>3000</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>480</v>
+        <v>271</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MOB CT</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>699</v>
+        <v>270</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>737</v>
+        <v>268</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7778</v>
+        <v>5714</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>483</v>
+        <v>265</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2705,11 +2705,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>497</v>
+        <v>243</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>839</v>
+        <v>20</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,43 +2800,43 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="N29" t="n">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="R29" t="n">
-        <v>5612</v>
+        <v>4912</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>847</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:09:22</t>
+          <t>00:15:50</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:04:37</t>
+          <t>00:06:40</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:06:10</t>
+          <t>00:09:32</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="N30" t="n">
-        <v>384</v>
+        <v>793</v>
       </c>
       <c r="O30" t="n">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="n">
-        <v>2797</v>
+        <v>4330</v>
       </c>
       <c r="R30" t="n">
-        <v>1921</v>
+        <v>1176</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T30" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="U30" t="n">
-        <v>781</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>680</v>
+        <v>194</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>00:06:03</t>
+          <t>00:12:18</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2987,16 +2987,16 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3333</v>
+        <v>50</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>708</v>
+        <v>207</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,34 +3058,34 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:27</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R32" t="n">
-        <v>2000</v>
+        <v>4444</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>828</v>
+        <v>203</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>700</v>
+        <v>196</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:02:55</t>
+          <t>00:02:02</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O34" t="n">
         <v>2</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>3333</v>
+        <v>1429</v>
       </c>
       <c r="R34" t="n">
         <v>5000</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>768</v>
+        <v>195</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,40 +3298,40 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:05:18</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:05:57</t>
+          <t>00:04:49</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:02:52</t>
+          <t>00:02:35</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N35" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>15</v>
+        <v>1364</v>
       </c>
       <c r="R35" t="n">
-        <v>1250</v>
+        <v>2368</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>812</v>
+        <v>19</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:10:44</t>
+          <t>00:04:24</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:05:09</t>
+          <t>00:13:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:06:57</t>
+          <t>00:11:45</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="O36" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>2222</v>
+        <v>5267</v>
       </c>
       <c r="R36" t="n">
-        <v>870</v>
+        <v>571</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>816</v>
+        <v>6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,40 +3464,40 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:09:04</t>
+          <t>00:16:33</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:06:02</t>
+          <t>00:09:45</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:08:16</t>
+          <t>00:13:34</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="N37" t="n">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="O37" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2625</v>
+        <v>4381</v>
       </c>
       <c r="R37" t="n">
-        <v>1154</v>
+        <v>561</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>804</v>
+        <v>7</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:09:21</t>
+          <t>00:15:49</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:04:35</t>
+          <t>00:06:40</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:05:47</t>
+          <t>00:07:50</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N38" t="n">
-        <v>352</v>
+        <v>762</v>
       </c>
       <c r="O38" t="n">
-        <v>105</v>
+        <v>327</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q38" t="n">
-        <v>3026</v>
+        <v>4354</v>
       </c>
       <c r="R38" t="n">
-        <v>556</v>
+        <v>1039</v>
       </c>
       <c r="S38" t="n">
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="U38" t="n">
-        <v>5398</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>836</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:09:04</t>
+          <t>00:16:09</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:04:38</t>
+          <t>00:06:31</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:05:34</t>
+          <t>00:08:29</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="N39" t="n">
-        <v>281</v>
+        <v>621</v>
       </c>
       <c r="O39" t="n">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2222</v>
+        <v>3793</v>
       </c>
       <c r="R39" t="n">
-        <v>1250</v>
+        <v>943</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="U39" t="n">
-        <v>2740</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>837</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3711,45 +3711,45 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:09:12</t>
+          <t>00:15:53</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:04:27</t>
+          <t>00:06:44</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:06:20</t>
+          <t>00:10:23</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="N40" t="n">
-        <v>351</v>
+        <v>799</v>
       </c>
       <c r="O40" t="n">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q40" t="n">
-        <v>2622</v>
+        <v>4074</v>
       </c>
       <c r="R40" t="n">
-        <v>1460</v>
+        <v>840</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="U40" t="n">
-        <v>2877</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>00:09:15</t>
+          <t>00:15:58</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:06:39</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:05:36</t>
+          <t>00:09:24</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>168</v>
+        <v>310</v>
       </c>
       <c r="N41" t="n">
-        <v>432</v>
+        <v>964</v>
       </c>
       <c r="O41" t="n">
-        <v>99</v>
+        <v>377</v>
       </c>
       <c r="P41" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q41" t="n">
-        <v>2335</v>
+        <v>3977</v>
       </c>
       <c r="R41" t="n">
-        <v>2024</v>
+        <v>1165</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T41" t="n">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="U41" t="n">
-        <v>3194</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>801</v>
+        <v>140</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,34 +3882,34 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="N42" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>882</v>
+        <v>714</v>
       </c>
       <c r="R42" t="n">
-        <v>5161</v>
+        <v>6184</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>809</v>
+        <v>137</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3956,43 +3956,43 @@
         </is>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>00:01:15</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>00:00:48</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>91</v>
+      </c>
+      <c r="N43" t="n">
+        <v>97</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5</v>
+      </c>
+      <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>00:02:18</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>00:00:48</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>42</v>
-      </c>
-      <c r="N43" t="n">
-        <v>45</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
+        <v>521</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5385</v>
+      </c>
+      <c r="S43" t="n">
         <v>2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>444</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5476</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>763</v>
+        <v>4</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4037,49 +4037,49 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:13:48</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:02:25</t>
+          <t>00:04:40</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:09:28</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N44" t="n">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="O44" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>495</v>
+        <v>2061</v>
       </c>
       <c r="R44" t="n">
-        <v>6923</v>
+        <v>3103</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="U44" t="n">
-        <v>8218</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>825</v>
+        <v>136</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4120,43 +4120,43 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:02:31</t>
+          <t>00:02:21</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="N45" t="n">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>441</v>
+        <v>755</v>
       </c>
       <c r="R45" t="n">
-        <v>3846</v>
+        <v>4533</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>582</v>
+        <v>135</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>788</v>
+        <v>133</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N47" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>7917</v>
+        <v>6047</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>798</v>
+        <v>116</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4369,43 +4369,43 @@
         </is>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>00:00:34</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>00:01:36</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>62</v>
+      </c>
+      <c r="N48" t="n">
+        <v>64</v>
+      </c>
+      <c r="O48" t="n">
         <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>00:00:13</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>00:00:08</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>00:01:33</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>29</v>
-      </c>
-      <c r="N48" t="n">
-        <v>31</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="R48" t="n">
-        <v>4828</v>
+        <v>5000</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>764</v>
+        <v>115</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>3846</v>
+        <v>3462</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>728</v>
+        <v>10</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,37 +4535,37 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:36:58</t>
+          <t>00:28:34</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:09:56</t>
+          <t>00:10:10</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:17:09</t>
+          <t>00:22:24</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N50" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="O50" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>60</v>
+        <v>6034</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>769</v>
+        <v>113</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4632,14 +4632,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:01:25</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N51" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="O51" t="n">
         <v>4</v>
@@ -4648,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>20</v>
+        <v>667</v>
       </c>
       <c r="R51" t="n">
-        <v>5625</v>
+        <v>5714</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>597</v>
+        <v>112</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>703</v>
+        <v>111</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:02:57</t>
+          <t>00:02:02</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>773</v>
+        <v>108</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:41</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>2639</v>
       </c>
       <c r="R54" t="n">
-        <v>7647</v>
+        <v>5094</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>670</v>
+        <v>104</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4959,31 +4959,31 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:34</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>4286</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>604</v>
+        <v>94</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5051,22 +5051,22 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>606</v>
+        <v>91</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>739</v>
+        <v>90</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,31 +5208,31 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:51</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:02:26</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="R58" t="n">
-        <v>6667</v>
+        <v>4000</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>805</v>
+        <v>24</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5282,49 +5282,49 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N59" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>667</v>
+        <v>1053</v>
       </c>
       <c r="R59" t="n">
-        <v>2500</v>
+        <v>1846</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="U59" t="n">
-        <v>1333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>692</v>
+        <v>79</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5365,37 +5365,37 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>00:07:31</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:13:57</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:06:26</t>
+          <t>00:06:01</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N60" t="n">
+        <v>14</v>
+      </c>
+      <c r="O60" t="n">
         <v>6</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>4615</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>747</v>
+        <v>23</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5452,33 +5452,33 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:11:44</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:08:27</t>
+          <t>00:08:18</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:09:24</t>
+          <t>00:13:10</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1538</v>
+        <v>3864</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>790</v>
+        <v>64</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N62" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="R62" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>821</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -573,49 +573,49 @@
         </is>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>522</v>
+      </c>
+      <c r="N2" t="n">
+        <v>523</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>00:00:54</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>00:00:25</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>00:00:29</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1.147</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.177</v>
-      </c>
-      <c r="O2" t="n">
-        <v>17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9</v>
-      </c>
       <c r="Q2" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4490</v>
+        <v>9093</v>
       </c>
       <c r="S2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3158</v>
+        <v>6667</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>804</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -829,34 +829,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="N5" t="n">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5975</v>
+        <v>9261</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -912,34 +912,34 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>404</v>
+        <v>212</v>
       </c>
       <c r="N6" t="n">
-        <v>407</v>
+        <v>214</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
       <c r="Q6" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>5935</v>
+        <v>8915</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N7" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8182</v>
+        <v>9643</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="N8" t="n">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="O8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="R8" t="n">
-        <v>8356</v>
+        <v>8633</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1161,31 +1161,31 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:02:05</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="N9" t="n">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>337</v>
+        <v>95</v>
       </c>
       <c r="R9" t="n">
-        <v>1990</v>
+        <v>6538</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1244,31 +1244,31 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:02:35</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:01:31</t>
+          <t>00:00:30</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1714</v>
+        <v>6000</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1577,14 +1577,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:43</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1655,31 +1655,31 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:05:37</t>
+          <t>00:03:10</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:03:34</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>2857</v>
       </c>
       <c r="R15" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>10000</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2145,34 +2145,34 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:03:02</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="M21" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" t="n">
         <v>12</v>
       </c>
-      <c r="N21" t="n">
-        <v>13</v>
-      </c>
       <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1667</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8000</v>
+      </c>
+      <c r="S21" t="n">
         <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>769</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4167</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:24</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7143</v>
+        <v>6111</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2302,40 +2302,40 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>00:10:41</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:06:51</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:08:07</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="N23" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3086</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>833</v>
+        <v>6154</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2385,43 +2385,43 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>00:02:33</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>00:07:57</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:08:42</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3017</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2468,43 +2468,43 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>00:04:41</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00:06:57</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:08:29</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2656</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>652</v>
+        <v>5714</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2560,31 +2560,31 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:56</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:02:21</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="R26" t="n">
-        <v>6250</v>
+        <v>1667</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,43 +2800,43 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:16:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:03:06</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="N29" t="n">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O29" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1140</v>
+        <v>433</v>
       </c>
       <c r="R29" t="n">
-        <v>1588</v>
+        <v>4536</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>00:01:49</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>00:00:41</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>320</v>
+      </c>
+      <c r="N30" t="n">
+        <v>362</v>
+      </c>
+      <c r="O30" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>00:09:39</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>00:06:48</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>00:07:05</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>354</v>
-      </c>
-      <c r="N30" t="n">
-        <v>622</v>
-      </c>
-      <c r="O30" t="n">
-        <v>195</v>
-      </c>
       <c r="P30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>3186</v>
+        <v>110</v>
       </c>
       <c r="R30" t="n">
-        <v>1105</v>
+        <v>6006</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="U30" t="n">
-        <v>949</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,31 +3058,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3141,34 +3141,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>00:05:13</t>
+          <t>00:03:24</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:05:08</t>
+          <t>00:03:02</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="N33" t="n">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="O33" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2466</v>
+        <v>2520</v>
       </c>
       <c r="R33" t="n">
-        <v>2545</v>
+        <v>2717</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3224,31 +3224,31 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>00:13:40</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1429</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6667</v>
+        <v>8000</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3307,34 +3307,34 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:07:31</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:02:32</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R35" t="n">
-        <v>5357</v>
+        <v>4000</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3390,34 +3390,34 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:07:53</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:10:29</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N36" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O36" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>3511</v>
+        <v>339</v>
       </c>
       <c r="R36" t="n">
-        <v>328</v>
+        <v>4737</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,43 +3464,43 @@
         </is>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>00:04:48</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>00:02:46</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>71</v>
+      </c>
+      <c r="N37" t="n">
+        <v>76</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>658</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1690</v>
+      </c>
+      <c r="S37" t="n">
         <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>00:13:44</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>00:08:54</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>00:11:42</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>98</v>
-      </c>
-      <c r="N37" t="n">
-        <v>158</v>
-      </c>
-      <c r="O37" t="n">
-        <v>59</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3734</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,57 +3537,57 @@
         </is>
       </c>
       <c r="G38" t="n">
+        <v>214</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>vag_mobile_ups</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>00:01:26</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>00:00:51</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>60</v>
+      </c>
+      <c r="N38" t="n">
+        <v>211</v>
+      </c>
+      <c r="O38" t="n">
         <v>4</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>vag_mobile_ups</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>00:09:38</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>00:06:53</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>00:06:06</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>87</v>
-      </c>
-      <c r="N38" t="n">
-        <v>620</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
         <v>190</v>
       </c>
-      <c r="P38" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3100</v>
-      </c>
       <c r="R38" t="n">
-        <v>2069</v>
+        <v>4500</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="U38" t="n">
-        <v>5371</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="39">
@@ -3618,57 +3618,57 @@
         </is>
       </c>
       <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>vag_os3_ovf</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>00:01:40</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>00:01:09</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>99</v>
+      </c>
+      <c r="N39" t="n">
+        <v>169</v>
+      </c>
+      <c r="O39" t="n">
+        <v>7</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>417</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4747</v>
+      </c>
+      <c r="S39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>vag_os3_ovf</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>00:12:47</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>00:06:54</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>00:07:58</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>153</v>
-      </c>
-      <c r="N39" t="n">
-        <v>499</v>
-      </c>
-      <c r="O39" t="n">
-        <v>154</v>
-      </c>
-      <c r="P39" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3130</v>
-      </c>
-      <c r="R39" t="n">
-        <v>980</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
       <c r="T39" t="n">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="U39" t="n">
-        <v>3587</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="40">
@@ -3699,57 +3699,57 @@
         </is>
       </c>
       <c r="G40" t="n">
+        <v>172</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>vag_os7_amm</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>00:01:55</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>00:01:05</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>87</v>
+      </c>
+      <c r="N40" t="n">
+        <v>165</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>vag_os7_amm</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>00:11:35</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>00:07:03</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>00:08:06</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>137</v>
-      </c>
-      <c r="N40" t="n">
-        <v>419</v>
-      </c>
-      <c r="O40" t="n">
-        <v>139</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
-        <v>3317</v>
+        <v>122</v>
       </c>
       <c r="R40" t="n">
-        <v>365</v>
+        <v>3908</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="U40" t="n">
-        <v>3270</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>00:11:45</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:06:59</t>
+          <t>00:01:52</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:08:31</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="N41" t="n">
-        <v>534</v>
+        <v>369</v>
       </c>
       <c r="O41" t="n">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>3251</v>
+        <v>82</v>
       </c>
       <c r="R41" t="n">
-        <v>605</v>
+        <v>6606</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="U41" t="n">
-        <v>2566</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,31 +3882,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:08</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>4286</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,34 +3965,34 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:03:18</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="N43" t="n">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="O43" t="n">
+        <v>5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>694</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7727</v>
+      </c>
+      <c r="S43" t="n">
         <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>99</v>
-      </c>
-      <c r="R43" t="n">
-        <v>9836</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4046,40 +4046,40 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3636</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4129,34 +4129,34 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="N45" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="R45" t="n">
-        <v>9780</v>
+        <v>8095</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4295,31 +4295,31 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:03:43</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>7</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>1429</v>
+        <v>7143</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4383,14 +4383,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N48" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>10000</v>
+        <v>8485</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N49" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>10000</v>
+        <v>7895</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,43 +4535,43 @@
         </is>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>00:06:35</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>00:05:06</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>33</v>
+      </c>
+      <c r="N50" t="n">
+        <v>40</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1750</v>
+      </c>
+      <c r="R50" t="n">
+        <v>303</v>
+      </c>
+      <c r="S50" t="n">
         <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>00:10:03</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>00:08:35</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>00:09:22</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>29</v>
-      </c>
-      <c r="N50" t="n">
-        <v>53</v>
-      </c>
-      <c r="O50" t="n">
-        <v>27</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5094</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:06</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:02:48</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N51" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="R51" t="n">
-        <v>9592</v>
+        <v>7097</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4793,31 +4793,31 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:31</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R53" t="n">
-        <v>10000</v>
+        <v>8571</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:02:34</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N54" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>3214</v>
+        <v>5641</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:04:22</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1250</v>
+        <v>7143</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5051,22 +5051,22 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,31 +5208,31 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:01:53</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:03:37</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N58" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1250</v>
+        <v>1429</v>
       </c>
       <c r="R58" t="n">
-        <v>714</v>
+        <v>8333</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5282,49 +5282,49 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:45</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:47</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N59" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="O59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>779</v>
+        <v>556</v>
       </c>
       <c r="R59" t="n">
-        <v>930</v>
+        <v>1379</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="U59" t="n">
-        <v>3636</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,31 +5374,31 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:10:30</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:15:19</t>
+          <t>00:04:58</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5448,40 +5448,40 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>00:01:38</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>00:01:54</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>7</v>
+      </c>
+      <c r="N61" t="n">
+        <v>8</v>
+      </c>
+      <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>00:06:02</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>00:07:58</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>00:06:08</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>20</v>
-      </c>
-      <c r="N61" t="n">
-        <v>29</v>
-      </c>
-      <c r="O61" t="n">
-        <v>7</v>
-      </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="R61" t="n">
-        <v>500</v>
+        <v>4286</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N62" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="R62" t="n">
-        <v>9286</v>
+        <v>7273</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -582,34 +582,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>522</v>
+        <v>1.322</v>
       </c>
       <c r="N2" t="n">
-        <v>523</v>
+        <v>1.327</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>9093</v>
+        <v>8279</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:19</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6667</v>
+        <v>5385</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -829,34 +829,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="N5" t="n">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R5" t="n">
-        <v>9261</v>
+        <v>9245</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>212</v>
+        <v>404</v>
       </c>
       <c r="N6" t="n">
-        <v>214</v>
+        <v>406</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8915</v>
+        <v>8809</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9643</v>
+        <v>8971</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>772</v>
+        <v>24</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>266</v>
+        <v>498</v>
       </c>
       <c r="N8" t="n">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R8" t="n">
-        <v>8633</v>
+        <v>8786</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1161,31 +1161,31 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:02:05</t>
+          <t>00:01:47</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="N9" t="n">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="R9" t="n">
-        <v>6538</v>
+        <v>4928</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1244,31 +1244,31 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="R10" t="n">
-        <v>6000</v>
+        <v>4286</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1667</v>
+        <v>1053</v>
       </c>
       <c r="R21" t="n">
-        <v>8000</v>
+        <v>7059</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2219,40 +2219,40 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:42</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:24</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N22" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="R22" t="n">
-        <v>6111</v>
+        <v>5185</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2316,14 +2316,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6154</v>
+        <v>6000</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1429</v>
+        <v>10</v>
       </c>
       <c r="R26" t="n">
-        <v>1667</v>
+        <v>2222</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,43 +2800,43 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:28</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:57</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="N29" t="n">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="O29" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="R29" t="n">
-        <v>4536</v>
+        <v>4946</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:08:11</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:03:17</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:01:36</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>320</v>
+        <v>672</v>
       </c>
       <c r="N30" t="n">
-        <v>362</v>
+        <v>815</v>
       </c>
       <c r="O30" t="n">
+        <v>57</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>700</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4747</v>
+      </c>
+      <c r="S30" t="n">
         <v>4</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>110</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6006</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
       <c r="T30" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="U30" t="n">
-        <v>1077</v>
+        <v>920</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,34 +3058,34 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2222</v>
       </c>
       <c r="R32" t="n">
-        <v>10000</v>
+        <v>7143</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3224,31 +3224,31 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:40</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="R34" t="n">
-        <v>8000</v>
+        <v>8571</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,43 +3298,43 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:07:31</t>
+          <t>00:07:13</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:02:32</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N35" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>12</v>
+        <v>1324</v>
       </c>
       <c r="R35" t="n">
-        <v>4000</v>
+        <v>4737</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:57</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:07:28</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:03:20</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="N36" t="n">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>339</v>
+        <v>10</v>
       </c>
       <c r="R36" t="n">
-        <v>4737</v>
+        <v>2946</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,43 +3464,43 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:49</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:04:48</t>
+          <t>00:07:13</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:02:46</t>
+          <t>00:05:57</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="N37" t="n">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>658</v>
+        <v>1841</v>
       </c>
       <c r="R37" t="n">
-        <v>1690</v>
+        <v>1411</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:08:10</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:03:14</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="N38" t="n">
-        <v>211</v>
+        <v>588</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>190</v>
+        <v>956</v>
       </c>
       <c r="R38" t="n">
-        <v>4500</v>
+        <v>3390</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T38" t="n">
-        <v>144</v>
+        <v>401</v>
       </c>
       <c r="U38" t="n">
-        <v>6825</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:33</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:02:51</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="N39" t="n">
-        <v>169</v>
+        <v>400</v>
       </c>
       <c r="O39" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>417</v>
+        <v>879</v>
       </c>
       <c r="R39" t="n">
-        <v>4747</v>
+        <v>3416</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="U39" t="n">
-        <v>3728</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,49 +3707,49 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:45</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:01:55</t>
+          <t>00:02:48</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="N40" t="n">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>122</v>
+        <v>622</v>
       </c>
       <c r="R40" t="n">
-        <v>3908</v>
+        <v>2294</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="U40" t="n">
-        <v>4545</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:50</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:01:52</t>
+          <t>00:02:47</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>277</v>
+        <v>569</v>
       </c>
       <c r="N41" t="n">
-        <v>369</v>
+        <v>840</v>
       </c>
       <c r="O41" t="n">
+        <v>37</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>444</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5285</v>
+      </c>
+      <c r="S41" t="n">
         <v>3</v>
       </c>
-      <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>82</v>
-      </c>
-      <c r="R41" t="n">
-        <v>6606</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2</v>
-      </c>
       <c r="T41" t="n">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="U41" t="n">
-        <v>2358</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,31 +3882,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N42" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1538</v>
+        <v>714</v>
       </c>
       <c r="R42" t="n">
-        <v>4286</v>
+        <v>6349</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,34 +3965,34 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:03:18</t>
+          <t>00:03:11</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="N43" t="n">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="O43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>694</v>
+        <v>504</v>
       </c>
       <c r="R43" t="n">
-        <v>7727</v>
+        <v>7209</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4037,49 +4037,49 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:19</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:03:50</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="N44" t="n">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="O44" t="n">
+        <v>25</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1289</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3019</v>
+      </c>
+      <c r="S44" t="n">
         <v>2</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>286</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3636</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
       <c r="T44" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="U44" t="n">
-        <v>3429</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4134,14 +4134,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="N45" t="n">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
@@ -4150,13 +4150,13 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="R45" t="n">
-        <v>8095</v>
+        <v>7698</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>7143</v>
+        <v>6923</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4378,34 +4378,34 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N48" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="R48" t="n">
-        <v>8485</v>
+        <v>8095</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N49" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>7895</v>
+        <v>7353</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,40 +4535,40 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:18</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:06:35</t>
+          <t>00:06:45</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:05:06</t>
+          <t>00:06:10</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N50" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="O50" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1750</v>
+        <v>2078</v>
       </c>
       <c r="R50" t="n">
-        <v>303</v>
+        <v>806</v>
       </c>
       <c r="S50" t="n">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:05:06</t>
+          <t>00:05:01</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:02:48</t>
+          <t>00:01:55</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="N51" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>882</v>
+        <v>597</v>
       </c>
       <c r="R51" t="n">
-        <v>7097</v>
+        <v>6190</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O53" t="n">
         <v>3</v>
@@ -4814,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R53" t="n">
-        <v>8571</v>
+        <v>7778</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="N54" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>5641</v>
+        <v>5068</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N55" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>7143</v>
+        <v>6364</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,34 +5208,34 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N58" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>769</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6667</v>
+      </c>
+      <c r="S58" t="n">
         <v>1</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1429</v>
-      </c>
-      <c r="R58" t="n">
-        <v>8333</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5282,49 +5282,49 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:01:51</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:31</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="N59" t="n">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>556</v>
+        <v>769</v>
       </c>
       <c r="R59" t="n">
-        <v>1379</v>
+        <v>1887</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U59" t="n">
-        <v>3704</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,34 +5374,34 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:30</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:04:58</t>
+          <t>00:05:52</t>
         </is>
       </c>
       <c r="M60" t="n">
+        <v>11</v>
+      </c>
+      <c r="N60" t="n">
+        <v>16</v>
+      </c>
+      <c r="O60" t="n">
         <v>4</v>
       </c>
-      <c r="N60" t="n">
-        <v>4</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="R60" t="n">
-        <v>2500</v>
+        <v>1818</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5457,40 +5457,40 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:01:38</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:01:54</t>
+          <t>00:03:16</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>833</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2381</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1250</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4286</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N62" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="R62" t="n">
-        <v>7273</v>
+        <v>7073</v>
       </c>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>821</v>
+        <v>22</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -582,34 +582,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.322</v>
+        <v>238</v>
       </c>
       <c r="N2" t="n">
-        <v>1.327</v>
+        <v>238</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8279</v>
+        <v>7229</v>
       </c>
       <c r="S2" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5385</v>
+        <v>2500</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -838,25 +838,25 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="N5" t="n">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>109</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="S5" t="n">
         <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>27</v>
-      </c>
-      <c r="R5" t="n">
-        <v>9245</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>404</v>
+        <v>119</v>
       </c>
       <c r="N6" t="n">
-        <v>406</v>
+        <v>119</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8559</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>8809</v>
-      </c>
-      <c r="S6" t="n">
-        <v>12</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8971</v>
+        <v>6000</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1069,40 +1069,40 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:02:10</t>
+          <t>00:07:01</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:02:20</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="N8" t="n">
-        <v>507</v>
+        <v>96</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>79</v>
+        <v>638</v>
       </c>
       <c r="R8" t="n">
-        <v>8786</v>
+        <v>2297</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>758</v>
+        <v>20</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:41</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:01:47</t>
+          <t>00:04:43</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="N9" t="n">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>4928</v>
+        <v>3830</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1244,31 +1244,31 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4286</v>
+        <v>2500</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1577,14 +1577,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00:06:43</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1655,19 +1655,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:03:10</t>
+          <t>00:08:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:03:34</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2857</v>
+        <v>6667</v>
       </c>
       <c r="R15" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2145,34 +2145,34 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:05:40</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1053</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7059</v>
+        <v>3333</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>18</v>
+        <v>289</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2219,28 +2219,28 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:11:38</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:03:49</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>345</v>
+        <v>3333</v>
       </c>
       <c r="R22" t="n">
-        <v>5185</v>
+        <v>5000</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2311,34 +2311,34 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:23</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>6000</v>
+        <v>5714</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6129</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2477,31 +2477,31 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:22</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:01:50</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="R25" t="n">
-        <v>5714</v>
+        <v>4231</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2560,31 +2560,31 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>00:02:56</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:04:42</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,43 +2800,43 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:03:28</t>
+          <t>00:24:23</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:07:17</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:04:42</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="N29" t="n">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="O29" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3187</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3019</v>
+      </c>
+      <c r="S29" t="n">
         <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>463</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4946</v>
-      </c>
-      <c r="S29" t="n">
-        <v>10</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:08:11</t>
+          <t>00:01:22</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:03:17</t>
+          <t>00:03:15</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>672</v>
+        <v>143</v>
       </c>
       <c r="N30" t="n">
-        <v>815</v>
+        <v>178</v>
       </c>
       <c r="O30" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>700</v>
+        <v>618</v>
       </c>
       <c r="R30" t="n">
-        <v>4747</v>
+        <v>5734</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="U30" t="n">
-        <v>920</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="31">
@@ -2980,14 +2980,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3058,34 +3058,34 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:02:18</t>
+          <t>00:02:45</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2222</v>
+        <v>20</v>
       </c>
       <c r="R32" t="n">
-        <v>7143</v>
+        <v>10000</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3141,34 +3141,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>00:03:24</t>
+          <t>00:04:08</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:03:02</t>
+          <t>00:02:56</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="N33" t="n">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="O33" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2520</v>
+        <v>2133</v>
       </c>
       <c r="R33" t="n">
-        <v>2717</v>
+        <v>4576</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3224,31 +3224,31 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>00:03:40</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>8571</v>
+        <v>10000</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,43 +3298,43 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:07:13</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="N35" t="n">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1324</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4737</v>
+        <v>10000</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:03:57</t>
+          <t>00:02:50</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:07:28</t>
+          <t>00:09:23</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:03:20</t>
+          <t>00:04:47</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="N36" t="n">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="O36" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>10</v>
+        <v>1875</v>
       </c>
       <c r="R36" t="n">
-        <v>2946</v>
+        <v>1892</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,43 +3464,43 @@
         </is>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>00:02:16</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>00:03:00</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>33</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>00:02:49</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>00:07:13</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>00:05:57</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>164</v>
-      </c>
-      <c r="N37" t="n">
-        <v>201</v>
-      </c>
-      <c r="O37" t="n">
-        <v>37</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>1841</v>
+        <v>833</v>
       </c>
       <c r="R37" t="n">
-        <v>1411</v>
+        <v>2424</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,11 +3545,11 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:08:10</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3559,35 +3559,35 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:01:25</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>588</v>
+        <v>114</v>
       </c>
       <c r="O38" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="R38" t="n">
-        <v>3390</v>
+        <v>4800</v>
       </c>
       <c r="S38" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="U38" t="n">
-        <v>6820</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:05:33</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:02:51</t>
+          <t>00:05:05</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="N39" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="O39" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>879</v>
+        <v>247</v>
       </c>
       <c r="R39" t="n">
-        <v>3416</v>
+        <v>4043</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="U39" t="n">
-        <v>3950</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="40">
@@ -3699,57 +3699,57 @@
         </is>
       </c>
       <c r="G40" t="n">
+        <v>187</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>vag_os7_amm</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>00:02:16</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>00:01:49</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>38</v>
+      </c>
+      <c r="N40" t="n">
+        <v>71</v>
+      </c>
+      <c r="O40" t="n">
         <v>4</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>vag_os7_amm</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>00:06:45</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>00:02:48</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>00:02:30</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>219</v>
-      </c>
-      <c r="N40" t="n">
-        <v>470</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>563</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3421</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>29</v>
       </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>622</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2294</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
-      <c r="T40" t="n">
-        <v>212</v>
-      </c>
       <c r="U40" t="n">
-        <v>4511</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="41">
@@ -3782,57 +3782,57 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>136</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>vag_retention_1PS</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>00:02:21</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>00:01:22</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>90</v>
+      </c>
+      <c r="N41" t="n">
+        <v>131</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>305</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5444</v>
+      </c>
+      <c r="S41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>vag_retention_1PS</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>00:06:50</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>00:02:47</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>00:01:30</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>569</v>
-      </c>
-      <c r="N41" t="n">
-        <v>840</v>
-      </c>
-      <c r="O41" t="n">
-        <v>37</v>
-      </c>
-      <c r="P41" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>444</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5285</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
       <c r="T41" t="n">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="U41" t="n">
-        <v>2607</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,31 +3882,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6349</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,34 +3965,34 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:03:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="N43" t="n">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="O43" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7209</v>
+        <v>10000</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4037,49 +4037,49 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:05:19</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:03:50</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:02:58</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1289</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3019</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4129,34 +4129,34 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="N45" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7698</v>
+        <v>9444</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4295,31 +4295,31 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N47" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R47" t="n">
-        <v>6923</v>
+        <v>7500</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4378,31 +4378,31 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="N48" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>8095</v>
+        <v>10000</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>7353</v>
+        <v>10000</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4539,39 +4539,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:04:18</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:06:45</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:06:10</t>
+          <t>00:02:59</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="N50" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="O50" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2078</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>806</v>
+        <v>2500</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:05:01</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:01:55</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="N51" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>6190</v>
+        <v>10000</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4793,31 +4793,31 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>00:03:31</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>7778</v>
+        <v>10000</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:00:08</t>
+          <t>00:03:13</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:02:13</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="N54" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R54" t="n">
-        <v>5068</v>
+        <v>1111</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:03:11</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>6364</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,34 +5208,34 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:04:13</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N58" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>6667</v>
+        <v>2857</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5291,40 +5291,40 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:51</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N59" t="n">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3913</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" t="n">
         <v>8</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>769</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1887</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>43</v>
-      </c>
-      <c r="U59" t="n">
-        <v>4135</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,34 +5374,34 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:05:52</t>
+          <t>00:02:22</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>1818</v>
+        <v>5000</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5457,31 +5457,31 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:01:24</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:03:16</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N61" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>2381</v>
+        <v>3333</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>417</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="62">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="N62" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="O62" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>7073</v>
+        <v>8333</v>
       </c>
       <c r="S62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>821</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -582,34 +582,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>238</v>
+        <v>852</v>
       </c>
       <c r="N2" t="n">
-        <v>238</v>
+        <v>867</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="R2" t="n">
-        <v>7229</v>
+        <v>7568</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -665,31 +665,31 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:58</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="R3" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -834,29 +834,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="N5" t="n">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="R5" t="n">
-        <v>9000</v>
+        <v>8539</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="N6" t="n">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8559</v>
+        <v>8061</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:00:24</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6000</v>
+        <v>7857</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1069,40 +1069,40 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:07:01</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:03:06</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:02:20</t>
+          <t>00:03:08</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="N8" t="n">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
-        <v>638</v>
+        <v>1559</v>
       </c>
       <c r="R8" t="n">
-        <v>2297</v>
+        <v>2397</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1156,39 +1156,39 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:04:43</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="N9" t="n">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="R9" t="n">
-        <v>3830</v>
+        <v>3095</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2500</v>
+        <v>1923</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:05:40</t>
+          <t>00:04:54</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2228,28 +2228,28 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>00:11:38</t>
+          <t>00:07:46</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:03:49</t>
+          <t>00:02:23</t>
         </is>
       </c>
       <c r="M22" t="n">
+        <v>14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
         <v>2</v>
       </c>
-      <c r="N22" t="n">
-        <v>3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3333</v>
+        <v>1333</v>
       </c>
       <c r="R22" t="n">
         <v>5000</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2311,34 +2311,34 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:04:23</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="N23" t="n">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="R23" t="n">
-        <v>5714</v>
+        <v>5105</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2394,34 +2394,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:03:03</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="N24" t="n">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="R24" t="n">
-        <v>6129</v>
+        <v>4846</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2477,34 +2477,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00:04:22</t>
+          <t>00:02:19</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="N25" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>390</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S25" t="n">
         <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>370</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4231</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,43 +2800,43 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:24:23</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:07:17</t>
+          <t>00:06:56</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:04:42</t>
+          <t>00:04:28</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="N29" t="n">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="O29" t="n">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>3187</v>
+        <v>2786</v>
       </c>
       <c r="R29" t="n">
-        <v>3019</v>
+        <v>2917</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:03:15</t>
+          <t>00:02:47</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>143</v>
+        <v>529</v>
       </c>
       <c r="N30" t="n">
-        <v>178</v>
+        <v>627</v>
       </c>
       <c r="O30" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>618</v>
+        <v>399</v>
       </c>
       <c r="R30" t="n">
-        <v>5734</v>
+        <v>5501</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T30" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="U30" t="n">
-        <v>1292</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3063,14 +3063,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>20</v>
+        <v>1429</v>
       </c>
       <c r="R32" t="n">
-        <v>10000</v>
+        <v>8333</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>193</v>
+        <v>13</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3215,11 +3215,11 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:40</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10000</v>
+        <v>8889</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3307,31 +3307,31 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:57</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="R35" t="n">
-        <v>10000</v>
+        <v>9118</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>00:01:11</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>00:05:59</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>00:04:47</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>135</v>
+      </c>
+      <c r="N36" t="n">
+        <v>164</v>
+      </c>
+      <c r="O36" t="n">
+        <v>26</v>
+      </c>
+      <c r="P36" t="n">
         <v>2</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>00:02:50</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>00:09:23</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>00:04:47</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>37</v>
-      </c>
-      <c r="N36" t="n">
-        <v>48</v>
-      </c>
-      <c r="O36" t="n">
-        <v>9</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>1875</v>
+        <v>1605</v>
       </c>
       <c r="R36" t="n">
-        <v>1892</v>
+        <v>1493</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,43 +3464,43 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:24</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:03:25</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:22</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="N37" t="n">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>833</v>
+        <v>769</v>
       </c>
       <c r="R37" t="n">
-        <v>2424</v>
+        <v>1810</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:03:14</t>
+          <t>00:02:46</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:25</t>
+          <t>00:01:33</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N38" t="n">
-        <v>114</v>
+        <v>398</v>
       </c>
       <c r="O38" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>965</v>
+        <v>605</v>
       </c>
       <c r="R38" t="n">
-        <v>4800</v>
+        <v>4111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="U38" t="n">
-        <v>6667</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3630,45 +3630,45 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:05:05</t>
+          <t>00:02:07</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:02:04</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="N39" t="n">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="O39" t="n">
+        <v>15</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>462</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3333</v>
+      </c>
+      <c r="S39" t="n">
         <v>2</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>247</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4043</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
       <c r="T39" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="U39" t="n">
-        <v>3704</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3716,40 +3716,40 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:02:12</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="N40" t="n">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>563</v>
+        <v>354</v>
       </c>
       <c r="R40" t="n">
-        <v>3421</v>
+        <v>4257</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="U40" t="n">
-        <v>4085</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3799,40 +3799,40 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:02:21</t>
+          <t>00:02:07</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="N41" t="n">
-        <v>131</v>
+        <v>439</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="R41" t="n">
-        <v>5444</v>
+        <v>5271</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="U41" t="n">
-        <v>2901</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N43" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4134,14 +4134,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:02</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="N45" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9444</v>
+        <v>9848</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4295,31 +4295,31 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>00:02:58</t>
+          <t>00:03:35</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>20</v>
+        <v>1154</v>
       </c>
       <c r="R47" t="n">
-        <v>7500</v>
+        <v>5217</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>10000</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N49" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4527,48 +4527,48 @@
         </is>
       </c>
       <c r="G50" t="n">
+        <v>106</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>vag_tsupp_8PS</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>00:09:42</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>00:06:11</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>54</v>
+      </c>
+      <c r="N50" t="n">
+        <v>62</v>
+      </c>
+      <c r="O50" t="n">
         <v>11</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>vag_tsupp_8PS</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>00:01:11</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>00:02:59</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>8</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="R50" t="n">
-        <v>2500</v>
+        <v>1111</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4636,10 +4636,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N51" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4802,10 +4802,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,31 +4876,31 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:03:13</t>
+          <t>00:03:30</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:02:13</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="O54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="R54" t="n">
-        <v>1111</v>
+        <v>4048</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:03:11</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5130,14 +5130,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>6667</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,31 +5208,31 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:25</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:04:13</t>
+          <t>00:02:07</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N58" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="R58" t="n">
-        <v>2857</v>
+        <v>4118</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5291,40 +5291,40 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N59" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="R59" t="n">
-        <v>3913</v>
+        <v>4063</v>
       </c>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U59" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,31 +5374,31 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:22</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:02:22</t>
+          <t>00:02:35</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="R60" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5462,14 +5462,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N61" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>3333</v>
+        <v>5385</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>1429</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="R62" t="n">
-        <v>8333</v>
+        <v>8824</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>821</v>
+        <v>10</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -582,34 +582,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>852</v>
+        <v>352</v>
       </c>
       <c r="N2" t="n">
-        <v>867</v>
+        <v>353</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7568</v>
+        <v>8617</v>
       </c>
       <c r="S2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -665,34 +665,34 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>00:01:58</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:19</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8750</v>
+      </c>
+      <c r="S3" t="n">
         <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>625</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8000</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -829,31 +829,31 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="N5" t="n">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8539</v>
+        <v>9225</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:08</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>377</v>
+        <v>173</v>
       </c>
       <c r="N6" t="n">
-        <v>377</v>
+        <v>173</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8061</v>
+        <v>8830</v>
       </c>
       <c r="S6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:24</t>
+          <t>00:00:01</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N7" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7857</v>
+        <v>9643</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1069,40 +1069,40 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:01:35</t>
+          <t>00:02:06</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:03:06</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:03:08</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="N8" t="n">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="O8" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1559</v>
+        <v>408</v>
       </c>
       <c r="R8" t="n">
-        <v>2397</v>
+        <v>4733</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1152,43 +1152,43 @@
         </is>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>00:00:25</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>00:00:28</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>78</v>
+      </c>
+      <c r="N9" t="n">
+        <v>79</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>00:00:10</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>00:03:41</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>00:01:24</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>169</v>
-      </c>
-      <c r="N9" t="n">
-        <v>176</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="R9" t="n">
-        <v>3095</v>
+        <v>5974</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,26 +1249,26 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1923</v>
+        <v>3333</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1655,31 +1655,31 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:08:00</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:57</t>
         </is>
       </c>
       <c r="M15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>6667</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10000</v>
+        <v>1250</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:04:54</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2228,34 +2228,34 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>00:07:46</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:02:23</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1333</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5000</v>
+        <v>8750</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2311,31 +2311,31 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5105</v>
+        <v>8000</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2394,34 +2394,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>00:03:03</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4846</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2477,34 +2477,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:01:24</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:04:42</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8571</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,43 +2800,43 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:32</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:06:56</t>
+          <t>00:02:20</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:04:28</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="N29" t="n">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="O29" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>2786</v>
+        <v>1103</v>
       </c>
       <c r="R29" t="n">
-        <v>2917</v>
+        <v>4567</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:24</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:02:47</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>529</v>
+        <v>246</v>
       </c>
       <c r="N30" t="n">
-        <v>627</v>
+        <v>259</v>
       </c>
       <c r="O30" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="R30" t="n">
-        <v>5501</v>
+        <v>8082</v>
       </c>
       <c r="S30" t="n">
+        <v>8</v>
+      </c>
+      <c r="T30" t="n">
         <v>10</v>
       </c>
-      <c r="T30" t="n">
-        <v>73</v>
-      </c>
       <c r="U30" t="n">
-        <v>1164</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,31 +3058,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:02:45</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1429</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8333</v>
+        <v>10000</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3141,31 +3141,31 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>00:04:08</t>
+          <t>00:03:15</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:02:56</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="N33" t="n">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O33" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>2133</v>
+        <v>2059</v>
       </c>
       <c r="R33" t="n">
-        <v>4576</v>
+        <v>3086</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3215,43 +3215,43 @@
         </is>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>00:01:22</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S34" t="n">
         <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>00:04:40</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>00:00:22</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>9</v>
-      </c>
-      <c r="N34" t="n">
-        <v>10</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>8889</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3307,34 +3307,34 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:04:57</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:05:14</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N35" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1364</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2632</v>
+      </c>
+      <c r="S35" t="n">
         <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>278</v>
-      </c>
-      <c r="R35" t="n">
-        <v>9118</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:05:59</t>
+          <t>00:03:18</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:04:47</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="N36" t="n">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="O36" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>492</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4746</v>
+      </c>
+      <c r="S36" t="n">
         <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1605</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1493</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,43 +3464,43 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:03:24</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:03:25</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:03:22</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="N37" t="n">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="O37" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1810</v>
+        <v>5366</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:02:46</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:33</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="O38" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>128</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6000</v>
+      </c>
+      <c r="S38" t="n">
         <v>1</v>
       </c>
-      <c r="Q38" t="n">
-        <v>605</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4111</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
       <c r="T38" t="n">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="U38" t="n">
-        <v>7111</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:02:07</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="N39" t="n">
-        <v>326</v>
+        <v>62</v>
       </c>
       <c r="O39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3333</v>
+        <v>5641</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="U39" t="n">
-        <v>3620</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,49 +3707,49 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:02:12</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="N40" t="n">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>968</v>
+      </c>
+      <c r="R40" t="n">
+        <v>8824</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>9</v>
       </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>354</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4257</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
-      <c r="T40" t="n">
-        <v>96</v>
-      </c>
       <c r="U40" t="n">
-        <v>3765</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:00:20</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>00:00:50</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>00:00:07</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>165</v>
+      </c>
+      <c r="N41" t="n">
+        <v>187</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>160</v>
+      </c>
+      <c r="R41" t="n">
+        <v>8861</v>
+      </c>
+      <c r="S41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>00:02:07</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>00:01:15</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>279</v>
-      </c>
-      <c r="N41" t="n">
-        <v>439</v>
-      </c>
-      <c r="O41" t="n">
-        <v>10</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>229</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5271</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
       <c r="T41" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="U41" t="n">
-        <v>3349</v>
+        <v>909</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,31 +3882,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>7059</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,34 +3965,34 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="N43" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="R43" t="n">
-        <v>10000</v>
+        <v>6512</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4129,34 +4129,34 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:54</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="N45" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
       <c r="R45" t="n">
-        <v>9848</v>
+        <v>5714</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4295,31 +4295,31 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>00:03:35</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N47" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>1154</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>5217</v>
+        <v>4286</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4383,14 +4383,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N48" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>10000</v>
+        <v>6923</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>10000</v>
+        <v>6667</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,40 +4535,40 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:13:01</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:09:42</t>
+          <t>00:07:53</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:06:11</t>
+          <t>00:06:03</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="N50" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1774</v>
+        <v>3636</v>
       </c>
       <c r="R50" t="n">
-        <v>1111</v>
+        <v>1053</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4632,14 +4632,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:41</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N51" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>10000</v>
+        <v>3333</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:03:30</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N54" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="O54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>4048</v>
+        <v>6667</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:02:58</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N55" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>833</v>
+        <v>8571</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5130,14 +5130,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>6667</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,31 +5208,31 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:02:25</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:02:07</t>
+          <t>00:00:30</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N58" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>4118</v>
+        <v>5000</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5282,49 +5282,49 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:43</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N59" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>4063</v>
+        <v>7391</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,31 +5374,31 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:04:22</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:02:35</t>
+          <t>00:01:50</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N60" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1667</v>
+        <v>1250</v>
       </c>
       <c r="R60" t="n">
-        <v>4000</v>
+        <v>1429</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5462,14 +5462,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N61" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5481,16 +5481,16 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>5385</v>
+        <v>7500</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:30</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N62" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O62" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
       <c r="Q62" t="n">
-        <v>556</v>
+        <v>1071</v>
       </c>
       <c r="R62" t="n">
-        <v>8824</v>
+        <v>6400</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>821</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>00:00:06</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>00:00:06</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>821</v>
+      </c>
+      <c r="N2" t="n">
+        <v>822</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>00:00:06</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>352</v>
-      </c>
-      <c r="N2" t="n">
-        <v>353</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8617</v>
+        <v>8786</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8750</v>
+        <v>6667</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -838,25 +838,25 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="N5" t="n">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R5" t="n">
-        <v>9225</v>
+        <v>9118</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="N6" t="n">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8830</v>
+        <v>9014</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9643</v>
+        <v>9014</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>772</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1069,40 +1069,40 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:02:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="N8" t="n">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P8" t="n">
         <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>408</v>
+        <v>621</v>
       </c>
       <c r="R8" t="n">
-        <v>4733</v>
+        <v>3775</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:08</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="N9" t="n">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="R9" t="n">
-        <v>5974</v>
+        <v>5338</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>388</v>
+        <v>13</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1972,11 +1972,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:44</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2145,31 +2145,31 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:02</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8750</v>
+        <v>8333</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>8571</v>
+        <v>6154</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,49 +2800,49 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:03:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:02:20</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="N29" t="n">
-        <v>146</v>
+        <v>306</v>
       </c>
       <c r="O29" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1103</v>
+        <v>820</v>
       </c>
       <c r="R29" t="n">
-        <v>4567</v>
+        <v>5735</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2887,45 +2887,45 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>00:00:13</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>00:00:58</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>00:00:24</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>00:00:26</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>00:00:13</t>
-        </is>
-      </c>
       <c r="M30" t="n">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="N30" t="n">
-        <v>259</v>
+        <v>554</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="R30" t="n">
-        <v>8082</v>
+        <v>7665</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="U30" t="n">
-        <v>386</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10000</v>
+        <v>3333</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3063,14 +3063,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:02</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,40 +3298,40 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:02:10</t>
+          <t>00:03:12</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:05:14</t>
+          <t>00:03:53</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N35" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1364</v>
+        <v>1429</v>
       </c>
       <c r="R35" t="n">
-        <v>2632</v>
+        <v>2439</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -3373,51 +3373,51 @@
         </is>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>vag_retention_shp2</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>00:11:32</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>00:04:18</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>00:01:26</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>122</v>
+      </c>
+      <c r="N36" t="n">
         <v>138</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>vag_retention_shp2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>00:03:18</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>00:01:08</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>59</v>
-      </c>
-      <c r="N36" t="n">
-        <v>61</v>
-      </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>492</v>
+        <v>657</v>
       </c>
       <c r="R36" t="n">
-        <v>4746</v>
+        <v>4545</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,40 +3464,40 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:15:27</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:13</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:02:13</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="N37" t="n">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="R37" t="n">
-        <v>5366</v>
+        <v>4242</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3549,45 +3549,45 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="O38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="R38" t="n">
-        <v>6000</v>
+        <v>4571</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="U38" t="n">
-        <v>8205</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="N39" t="n">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="R39" t="n">
-        <v>5641</v>
+        <v>4902</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="U39" t="n">
-        <v>3548</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,49 +3707,49 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:41</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="N40" t="n">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>968</v>
+        <v>303</v>
       </c>
       <c r="R40" t="n">
-        <v>8824</v>
+        <v>4861</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="U40" t="n">
-        <v>2903</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:01:19</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>00:01:37</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>00:00:20</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>378</v>
+      </c>
+      <c r="N41" t="n">
+        <v>458</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>109</v>
+      </c>
+      <c r="R41" t="n">
+        <v>8011</v>
+      </c>
+      <c r="S41" t="n">
         <v>2</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>00:00:20</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>00:00:50</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>00:00:07</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>165</v>
-      </c>
-      <c r="N41" t="n">
-        <v>187</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>160</v>
-      </c>
-      <c r="R41" t="n">
-        <v>8861</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
       <c r="T41" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="U41" t="n">
-        <v>909</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3887,14 +3887,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N42" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O42" t="n">
         <v>2</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1053</v>
+        <v>435</v>
       </c>
       <c r="R42" t="n">
-        <v>7059</v>
+        <v>7442</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,31 +3965,31 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:01:04</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="N43" t="n">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="R43" t="n">
-        <v>6512</v>
+        <v>5647</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4051,14 +4051,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>10000</v>
+        <v>7368</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4129,31 +4129,31 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:01:54</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:01:24</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="N45" t="n">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>1064</v>
+        <v>789</v>
       </c>
       <c r="R45" t="n">
-        <v>5714</v>
+        <v>4857</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>4286</v>
+        <v>4545</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4378,31 +4378,31 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:01:35</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="R48" t="n">
-        <v>6923</v>
+        <v>5882</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4452,40 +4452,40 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:24</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="R49" t="n">
-        <v>6667</v>
+        <v>6071</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4539,39 +4539,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:13:01</t>
+          <t>00:11:48</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:07:53</t>
+          <t>00:08:44</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:06:03</t>
+          <t>00:07:50</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N50" t="n">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="O50" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>3636</v>
+        <v>3143</v>
       </c>
       <c r="R50" t="n">
-        <v>1053</v>
+        <v>1087</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,34 +4627,34 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:43</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:02:41</t>
+          <t>00:02:12</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N51" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="R51" t="n">
-        <v>5000</v>
+        <v>4483</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4867,11 +4867,11 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:33</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4881,14 +4881,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>6667</v>
+        <v>6271</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>8571</v>
+        <v>6429</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:49</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5213,14 +5213,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>5000</v>
+        <v>5333</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5282,49 +5282,49 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>00:00:48</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>00:00:36</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>61</v>
+      </c>
+      <c r="N59" t="n">
+        <v>65</v>
+      </c>
+      <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>00:01:11</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>00:00:16</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>23</v>
-      </c>
-      <c r="N59" t="n">
-        <v>24</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="R59" t="n">
-        <v>7391</v>
+        <v>5082</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,31 +5374,31 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:02:35</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:02:15</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1250</v>
+        <v>10</v>
       </c>
       <c r="R60" t="n">
-        <v>1429</v>
+        <v>2778</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5462,14 +5462,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N61" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>7500</v>
+        <v>7143</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,31 +5540,31 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N62" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>1071</v>
+        <v>980</v>
       </c>
       <c r="R62" t="n">
-        <v>6400</v>
+        <v>6087</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -582,34 +582,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>821</v>
+        <v>179</v>
       </c>
       <c r="N2" t="n">
-        <v>822</v>
+        <v>182</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R2" t="n">
-        <v>8786</v>
+        <v>8315</v>
       </c>
       <c r="S2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6667</v>
+        <v>10000</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -829,34 +829,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="N5" t="n">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>9118</v>
+        <v>9167</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>803</v>
+        <v>24</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="N6" t="n">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9014</v>
+        <v>9167</v>
       </c>
       <c r="S6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>9014</v>
+        <v>10000</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>772</v>
+        <v>7</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1069,40 +1069,40 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="N8" t="n">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="O8" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="R8" t="n">
-        <v>3775</v>
+        <v>3735</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:02:10</t>
+          <t>00:02:26</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="N9" t="n">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>197</v>
+        <v>563</v>
       </c>
       <c r="R9" t="n">
-        <v>5338</v>
+        <v>3582</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1655,31 +1655,31 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:03:57</t>
+          <t>00:04:10</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>386</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1972,11 +1972,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>00:05:44</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2145,31 +2145,31 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="R21" t="n">
-        <v>8000</v>
+        <v>9091</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8333</v>
+        <v>7500</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2311,34 +2311,34 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N23" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="R23" t="n">
-        <v>8000</v>
+        <v>3871</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2482,14 +2482,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>8000</v>
+        <v>3077</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6154</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,49 +2800,49 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:15:39</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:02:58</t>
+          <t>00:04:52</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="N29" t="n">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="O29" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>820</v>
+        <v>2047</v>
       </c>
       <c r="R29" t="n">
-        <v>5735</v>
+        <v>3214</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2875,57 +2875,57 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>vag_mobile_tec</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>5</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>vag_mobile_tec</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:02:40</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:00:24</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>516</v>
+        <v>213</v>
       </c>
       <c r="N30" t="n">
-        <v>554</v>
+        <v>243</v>
       </c>
       <c r="O30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="R30" t="n">
-        <v>7665</v>
+        <v>5822</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="U30" t="n">
-        <v>596</v>
+        <v>741</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3063,14 +3063,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3141,34 +3141,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>00:03:15</t>
+          <t>00:02:27</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:02:42</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N33" t="n">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="O33" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>2059</v>
+        <v>2137</v>
       </c>
       <c r="R33" t="n">
-        <v>3086</v>
+        <v>3261</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3302,36 +3302,36 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:14</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:03:12</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:03:53</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N35" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="O35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1429</v>
+        <v>625</v>
       </c>
       <c r="R35" t="n">
-        <v>2439</v>
+        <v>2857</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>00:08:24</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>00:04:14</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>00:02:57</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>31</v>
+      </c>
+      <c r="N36" t="n">
+        <v>46</v>
+      </c>
+      <c r="O36" t="n">
         <v>8</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>00:11:32</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>00:04:18</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>00:01:26</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>122</v>
-      </c>
-      <c r="N36" t="n">
-        <v>138</v>
-      </c>
-      <c r="O36" t="n">
-        <v>9</v>
-      </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>657</v>
+        <v>1739</v>
       </c>
       <c r="R36" t="n">
-        <v>4545</v>
+        <v>1563</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,40 +3464,40 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:15:27</t>
+          <t>00:10:17</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:02:13</t>
+          <t>00:06:39</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:02:13</t>
+          <t>00:03:26</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>550</v>
+        <v>1429</v>
       </c>
       <c r="R37" t="n">
-        <v>4242</v>
+        <v>3000</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:02:39</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N38" t="n">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>208</v>
+        <v>368</v>
       </c>
       <c r="R38" t="n">
-        <v>4571</v>
+        <v>3810</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="U38" t="n">
-        <v>7772</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:02:33</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="N39" t="n">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="O39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="R39" t="n">
-        <v>4902</v>
+        <v>3974</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="U39" t="n">
-        <v>4022</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,49 +3707,49 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:02:25</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="N40" t="n">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>303</v>
+        <v>169</v>
       </c>
       <c r="R40" t="n">
-        <v>4861</v>
+        <v>3438</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="U40" t="n">
-        <v>4015</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="41">
@@ -3782,57 +3782,57 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>8</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>vag_retention_1PS</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:02:30</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>00:00:50</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>00:00:40</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>98</v>
+      </c>
+      <c r="N41" t="n">
+        <v>135</v>
+      </c>
+      <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>vag_retention_1PS</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>00:01:19</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>00:01:37</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>00:00:20</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>378</v>
-      </c>
-      <c r="N41" t="n">
-        <v>458</v>
-      </c>
-      <c r="O41" t="n">
-        <v>5</v>
-      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="R41" t="n">
-        <v>8011</v>
+        <v>7041</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="U41" t="n">
-        <v>1528</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,34 +3882,34 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:22</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="N42" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="R42" t="n">
-        <v>7442</v>
+        <v>4286</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3965,31 +3965,31 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:01:04</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="R43" t="n">
-        <v>5647</v>
+        <v>5600</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4051,14 +4051,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>7368</v>
+        <v>10000</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U44" t="n">
-        <v>24</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4129,31 +4129,31 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:02:28</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="N45" t="n">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="O45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4857</v>
+        <v>5909</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>4545</v>
+        <v>10000</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4378,34 +4378,34 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N48" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
       <c r="Q48" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>5882</v>
+        <v>3000</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4452,43 +4452,43 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>00:02:24</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>6071</v>
+        <v>8000</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4539,39 +4539,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:11:48</t>
+          <t>00:05:13</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:08:44</t>
+          <t>00:04:35</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:07:50</t>
+          <t>00:05:33</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N50" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="O50" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>3143</v>
+        <v>1905</v>
       </c>
       <c r="R50" t="n">
-        <v>1087</v>
+        <v>625</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,34 +4627,34 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:03:43</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:02:12</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N51" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>4483</v>
+        <v>6875</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4802,10 +4802,10 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4867,11 +4867,11 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>00:01:33</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4881,14 +4881,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N54" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4900,10 +4900,10 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>6271</v>
+        <v>8667</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>6429</v>
+        <v>10000</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5066,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>00:04:49</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5213,14 +5213,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N58" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>5333</v>
+        <v>8750</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5291,40 +5291,40 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="N59" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>5082</v>
+        <v>5385</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U59" t="n">
-        <v>308</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5365,40 +5365,40 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:46</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:02:35</t>
+          <t>00:11:27</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:02:15</t>
+          <t>00:05:52</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N60" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
         <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>10</v>
+        <v>2222</v>
       </c>
       <c r="R60" t="n">
-        <v>2778</v>
+        <v>6000</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5462,14 +5462,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N61" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>7143</v>
+        <v>5217</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5531,40 +5531,40 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:22</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:02:22</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N62" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="O62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>980</v>
+        <v>1053</v>
       </c>
       <c r="R62" t="n">
-        <v>6087</v>
+        <v>5000</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>821</v>
+        <v>13</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -577,39 +577,39 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>179</v>
+        <v>732</v>
       </c>
       <c r="N2" t="n">
-        <v>182</v>
+        <v>739</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="R2" t="n">
-        <v>8315</v>
+        <v>7779</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -834,14 +834,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="N5" t="n">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>9167</v>
+        <v>8040</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>804</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="N6" t="n">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9167</v>
+        <v>8429</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -995,31 +995,31 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10000</v>
+        <v>8929</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>773</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1069,40 +1069,40 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:01:35</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="N8" t="n">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>638</v>
+        <v>514</v>
       </c>
       <c r="R8" t="n">
-        <v>3735</v>
+        <v>3583</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>757</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1161,31 +1161,31 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:02:26</t>
+          <t>00:03:19</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="N9" t="n">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>563</v>
+        <v>963</v>
       </c>
       <c r="R9" t="n">
-        <v>3582</v>
+        <v>2308</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1244,34 +1244,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1579</v>
       </c>
       <c r="R10" t="n">
-        <v>3333</v>
+        <v>2500</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:26</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>833</v>
+        <v>286</v>
       </c>
       <c r="R21" t="n">
-        <v>9091</v>
+        <v>7941</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:41</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7500</v>
+        <v>6316</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:54</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2323,7 +2323,7 @@
         <v>31</v>
       </c>
       <c r="N23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="R23" t="n">
         <v>3871</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,43 +2800,43 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:15:39</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:04:52</t>
+          <t>00:05:46</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:02:34</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>113</v>
+        <v>421</v>
       </c>
       <c r="N29" t="n">
-        <v>174</v>
+        <v>532</v>
       </c>
       <c r="O29" t="n">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="R29" t="n">
-        <v>3214</v>
+        <v>5180</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:02:40</t>
+          <t>00:04:49</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:02:31</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:01:45</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>213</v>
+        <v>624</v>
       </c>
       <c r="N30" t="n">
-        <v>243</v>
+        <v>761</v>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>207</v>
+        <v>808</v>
       </c>
       <c r="R30" t="n">
-        <v>5822</v>
+        <v>4023</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T30" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="U30" t="n">
-        <v>741</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2975,28 +2975,28 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:15:58</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>6667</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,31 +3058,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2500</v>
+        <v>1111</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:02:32</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3302,39 +3302,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:02:24</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:02:58</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N35" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>625</v>
+        <v>364</v>
       </c>
       <c r="R35" t="n">
-        <v>2857</v>
+        <v>2222</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:08:24</t>
+          <t>00:03:34</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:04:14</t>
+          <t>00:10:16</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:02:57</t>
+          <t>00:06:36</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N36" t="n">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="O36" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1739</v>
+        <v>4167</v>
       </c>
       <c r="R36" t="n">
-        <v>1563</v>
+        <v>843</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,43 +3464,43 @@
         </is>
       </c>
       <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>00:11:22</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>00:13:41</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>00:03:37</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>37</v>
+      </c>
+      <c r="N37" t="n">
+        <v>53</v>
+      </c>
+      <c r="O37" t="n">
+        <v>11</v>
+      </c>
+      <c r="P37" t="n">
         <v>2</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>00:10:17</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>00:06:39</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>00:03:26</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>10</v>
-      </c>
-      <c r="N37" t="n">
-        <v>14</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>1429</v>
+        <v>2157</v>
       </c>
       <c r="R37" t="n">
-        <v>3000</v>
+        <v>2162</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:02:39</t>
+          <t>00:04:48</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:01:39</t>
+          <t>00:02:23</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="N38" t="n">
-        <v>138</v>
+        <v>563</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q38" t="n">
-        <v>368</v>
+        <v>1081</v>
       </c>
       <c r="R38" t="n">
-        <v>3810</v>
+        <v>3247</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T38" t="n">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="U38" t="n">
-        <v>7464</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="39">
@@ -3618,57 +3618,57 @@
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>vag_os3_ovf</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>00:01:41</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>00:02:01</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>00:01:44</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>209</v>
+      </c>
+      <c r="N39" t="n">
+        <v>404</v>
+      </c>
+      <c r="O39" t="n">
+        <v>29</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>720</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3254</v>
+      </c>
+      <c r="S39" t="n">
         <v>6</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>vag_os3_ovf</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>00:02:33</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>00:00:50</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>00:01:05</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>77</v>
-      </c>
-      <c r="N39" t="n">
-        <v>131</v>
-      </c>
-      <c r="O39" t="n">
-        <v>4</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>305</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3974</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
       <c r="T39" t="n">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="U39" t="n">
-        <v>3435</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3711,45 +3711,45 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:02:25</t>
+          <t>00:04:15</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:02:20</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="N40" t="n">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>169</v>
+        <v>769</v>
       </c>
       <c r="R40" t="n">
-        <v>3438</v>
+        <v>3241</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="U40" t="n">
-        <v>3559</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:04:20</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:02:27</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="N41" t="n">
-        <v>135</v>
+        <v>515</v>
       </c>
       <c r="O41" t="n">
+        <v>28</v>
+      </c>
+      <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="R41" t="n">
-        <v>7041</v>
+        <v>4745</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T41" t="n">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="U41" t="n">
-        <v>2370</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,34 +3882,34 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="O42" t="n">
         <v>3</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>588</v>
       </c>
       <c r="R42" t="n">
-        <v>4286</v>
+        <v>7917</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3965,31 +3965,31 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:02:59</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="N43" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>370</v>
+        <v>238</v>
       </c>
       <c r="R43" t="n">
-        <v>5600</v>
+        <v>4756</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4037,49 +4037,49 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N44" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="R44" t="n">
-        <v>10000</v>
+        <v>6889</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="U44" t="n">
-        <v>4615</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4129,34 +4129,34 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N45" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R45" t="n">
-        <v>5909</v>
+        <v>5481</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>10000</v>
+        <v>6667</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4378,28 +4378,28 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:04:05</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="R48" t="n">
         <v>3000</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N49" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,40 +4535,40 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:05:13</t>
+          <t>00:07:33</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:04:35</t>
+          <t>00:04:50</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:05:33</t>
+          <t>00:06:07</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="O50" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1905</v>
+        <v>2273</v>
       </c>
       <c r="R50" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:55</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N51" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="R51" t="n">
-        <v>6875</v>
+        <v>3750</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>5000</v>
+        <v>4286</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,31 +4876,31 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="R54" t="n">
-        <v>8667</v>
+        <v>6226</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5054,13 +5054,13 @@
         <v>1</v>
       </c>
       <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>1</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,31 +5208,31 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:07:11</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N58" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="R58" t="n">
-        <v>8750</v>
+        <v>5652</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5282,49 +5282,49 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:05</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N59" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="R59" t="n">
-        <v>5385</v>
+        <v>3455</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="U59" t="n">
-        <v>1034</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5365,40 +5365,40 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>00:03:46</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:11:27</t>
+          <t>00:08:13</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:05:52</t>
+          <t>00:05:16</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2222</v>
+        <v>20</v>
       </c>
       <c r="R60" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5457,31 +5457,31 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:14</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N61" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="R61" t="n">
-        <v>5217</v>
+        <v>4118</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5531,40 +5531,40 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>00:02:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:02:22</t>
+          <t>00:02:27</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N62" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1053</v>
+        <v>682</v>
       </c>
       <c r="R62" t="n">
-        <v>5000</v>
+        <v>3415</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>821</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>732</v>
+        <v>1.016</v>
       </c>
       <c r="N2" t="n">
-        <v>739</v>
+        <v>1.027</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R2" t="n">
-        <v>7779</v>
+        <v>7449</v>
       </c>
       <c r="S2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9000</v>
+        <v>9231</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -838,25 +838,25 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="N5" t="n">
-        <v>251</v>
+        <v>364</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R5" t="n">
-        <v>8040</v>
+        <v>8012</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>804</v>
+        <v>7</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:08</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="N6" t="n">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8429</v>
+        <v>8187</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -995,31 +995,31 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N7" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="R7" t="n">
-        <v>8929</v>
+        <v>8696</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:01:48</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="O8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="R8" t="n">
-        <v>3583</v>
+        <v>3188</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>757</v>
+        <v>6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1166,14 +1166,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:02:04</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="N9" t="n">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="O9" t="n">
         <v>18</v>
@@ -1182,13 +1182,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>963</v>
+        <v>756</v>
       </c>
       <c r="R9" t="n">
-        <v>2308</v>
+        <v>3180</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N10" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O10" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1579</v>
+        <v>1224</v>
       </c>
       <c r="R10" t="n">
-        <v>2500</v>
+        <v>3721</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:06:26</t>
+          <t>00:02:26</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N21" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="R21" t="n">
-        <v>7941</v>
+        <v>7632</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N22" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6316</v>
+        <v>6154</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>00:03:54</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" t="n">
         <v>33</v>
@@ -2335,7 +2335,7 @@
         <v>303</v>
       </c>
       <c r="R23" t="n">
-        <v>3871</v>
+        <v>3750</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5455</v>
+        <v>7500</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2800,40 +2800,40 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:05:46</t>
+          <t>00:05:22</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:02:34</t>
+          <t>00:02:46</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>421</v>
+        <v>563</v>
       </c>
       <c r="N29" t="n">
-        <v>532</v>
+        <v>696</v>
       </c>
       <c r="O29" t="n">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>2045</v>
+        <v>1986</v>
       </c>
       <c r="R29" t="n">
-        <v>5180</v>
+        <v>4652</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2883,49 +2883,49 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>00:04:49</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:02:31</t>
+          <t>00:02:23</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:01:45</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>624</v>
+        <v>843</v>
       </c>
       <c r="N30" t="n">
-        <v>761</v>
+        <v>997</v>
       </c>
       <c r="O30" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P30" t="n">
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="R30" t="n">
-        <v>4023</v>
+        <v>4256</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T30" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="U30" t="n">
-        <v>841</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,31 +3058,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:00:02</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:01:24</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2105</v>
       </c>
       <c r="R32" t="n">
-        <v>1111</v>
+        <v>2667</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:02:32</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N34" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2143</v>
+        <v>3333</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,11 +3298,11 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3312,14 +3312,14 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:02:18</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N35" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O35" t="n">
         <v>2</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="R35" t="n">
-        <v>2222</v>
+        <v>2727</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,40 +3381,40 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:03:34</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:10:16</t>
+          <t>00:09:53</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:06:36</t>
+          <t>00:04:57</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="N36" t="n">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="O36" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>4167</v>
+        <v>3282</v>
       </c>
       <c r="R36" t="n">
-        <v>843</v>
+        <v>1769</v>
       </c>
       <c r="S36" t="n">
         <v>2</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3464,40 +3464,40 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>00:11:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:13:41</t>
+          <t>00:14:21</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:03:37</t>
+          <t>00:04:20</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="N37" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="O37" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>2157</v>
+        <v>2090</v>
       </c>
       <c r="R37" t="n">
-        <v>2162</v>
+        <v>2222</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:04:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:02:23</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="M38" t="n">
+        <v>90</v>
+      </c>
+      <c r="N38" t="n">
+        <v>706</v>
+      </c>
+      <c r="O38" t="n">
         <v>77</v>
       </c>
-      <c r="N38" t="n">
-        <v>563</v>
-      </c>
-      <c r="O38" t="n">
-        <v>60</v>
-      </c>
       <c r="P38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q38" t="n">
-        <v>1081</v>
+        <v>1105</v>
       </c>
       <c r="R38" t="n">
-        <v>3247</v>
+        <v>3000</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>411</v>
+        <v>530</v>
       </c>
       <c r="U38" t="n">
-        <v>7300</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3626,49 +3626,49 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>00:01:41</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:01:53</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="N39" t="n">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="O39" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="R39" t="n">
-        <v>3254</v>
+        <v>3145</v>
       </c>
       <c r="S39" t="n">
         <v>6</v>
       </c>
       <c r="T39" t="n">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="U39" t="n">
-        <v>3911</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3707,49 +3707,49 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>00:04:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:02:20</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="N40" t="n">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="O40" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>769</v>
+        <v>732</v>
       </c>
       <c r="R40" t="n">
-        <v>3241</v>
+        <v>2983</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="U40" t="n">
-        <v>4186</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,49 +3790,49 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:02:27</t>
+          <t>00:02:19</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="N41" t="n">
-        <v>515</v>
+        <v>648</v>
       </c>
       <c r="O41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="R41" t="n">
-        <v>4745</v>
+        <v>4907</v>
       </c>
       <c r="S41" t="n">
         <v>6</v>
       </c>
       <c r="T41" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="U41" t="n">
-        <v>2835</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3887,14 +3887,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N42" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="O42" t="n">
         <v>3</v>
@@ -3903,13 +3903,13 @@
         <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>588</v>
+        <v>423</v>
       </c>
       <c r="R42" t="n">
-        <v>7917</v>
+        <v>7761</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,34 +3965,34 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:02:59</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="N43" t="n">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="O43" t="n">
         <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="R43" t="n">
-        <v>4756</v>
+        <v>5041</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4037,49 +4037,49 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N44" t="n">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="R44" t="n">
-        <v>6889</v>
+        <v>5899</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="U44" t="n">
-        <v>6605</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4134,14 +4134,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="N45" t="n">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
@@ -4150,13 +4150,13 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="R45" t="n">
-        <v>5481</v>
+        <v>5067</v>
       </c>
       <c r="S45" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4383,14 +4383,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N48" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O48" t="n">
         <v>3</v>
@@ -4399,10 +4399,10 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>938</v>
+        <v>732</v>
       </c>
       <c r="R48" t="n">
-        <v>3000</v>
+        <v>3077</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4461,31 +4461,31 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:22</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N49" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="R49" t="n">
-        <v>4800</v>
+        <v>5313</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,40 +4535,40 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:07:33</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:04:50</t>
+          <t>00:05:29</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:06:07</t>
+          <t>00:05:47</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N50" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="O50" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2273</v>
+        <v>2644</v>
       </c>
       <c r="R50" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:02:55</t>
+          <t>00:02:47</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:01:43</t>
+          <t>00:01:36</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N51" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>244</v>
+        <v>755</v>
       </c>
       <c r="R51" t="n">
-        <v>3750</v>
+        <v>4286</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>4286</v>
+        <v>5556</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:02:11</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N54" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="O54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1017</v>
+        <v>843</v>
       </c>
       <c r="R54" t="n">
-        <v>6226</v>
+        <v>6623</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4959,31 +4959,31 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:15</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N55" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>2222</v>
       </c>
       <c r="R55" t="n">
-        <v>6000</v>
+        <v>5714</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5047,14 +5047,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5066,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>10000</v>
+        <v>6667</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5213,14 +5213,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:24</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N58" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O58" t="n">
         <v>1</v>
@@ -5229,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="R58" t="n">
-        <v>5652</v>
+        <v>5926</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5286,45 +5286,45 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:02:05</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="N59" t="n">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="O59" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1481</v>
+        <v>1261</v>
       </c>
       <c r="R59" t="n">
-        <v>3455</v>
+        <v>3721</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U59" t="n">
-        <v>1605</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5379,14 +5379,14 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:05:16</t>
+          <t>00:04:33</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N60" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O60" t="n">
         <v>4</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>20</v>
+        <v>1667</v>
       </c>
       <c r="R60" t="n">
         <v>2500</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5462,14 +5462,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N61" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O61" t="n">
         <v>2</v>
@@ -5478,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>556</v>
+        <v>435</v>
       </c>
       <c r="R61" t="n">
-        <v>4118</v>
+        <v>3864</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:02:27</t>
+          <t>00:02:21</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N62" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>682</v>
+        <v>755</v>
       </c>
       <c r="R62" t="n">
-        <v>3415</v>
+        <v>3469</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -582,40 +582,40 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.016</v>
+        <v>446</v>
       </c>
       <c r="N2" t="n">
-        <v>1.027</v>
+        <v>452</v>
       </c>
       <c r="O2" t="n">
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="R2" t="n">
-        <v>7449</v>
+        <v>8028</v>
       </c>
       <c r="S2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9231</v>
+        <v>6667</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -829,34 +829,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:19</t>
+          <t>00:00:01</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:07</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="N5" t="n">
-        <v>364</v>
+        <v>163</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8012</v>
+        <v>8734</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>803</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -912,34 +912,34 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:14</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="N6" t="n">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="R6" t="n">
-        <v>8187</v>
+        <v>7432</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -995,31 +995,31 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="N7" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8696</v>
+        <v>9545</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:01:48</t>
+          <t>00:01:46</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:01:57</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="N8" t="n">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="O8" t="n">
         <v>15</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>476</v>
+        <v>829</v>
       </c>
       <c r="R8" t="n">
-        <v>3188</v>
+        <v>2651</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,51 +1144,51 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>756</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CODA_EXIT_05</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>00:01:21</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>00:00:49</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>148</v>
+      </c>
+      <c r="N9" t="n">
+        <v>156</v>
+      </c>
+      <c r="O9" t="n">
         <v>6</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CODA_EXIT_05</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>00:03:19</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>00:01:42</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>219</v>
-      </c>
-      <c r="N9" t="n">
-        <v>238</v>
-      </c>
-      <c r="O9" t="n">
-        <v>18</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>756</v>
+        <v>390</v>
       </c>
       <c r="R9" t="n">
-        <v>3180</v>
+        <v>3716</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1244,34 +1244,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1224</v>
+        <v>417</v>
       </c>
       <c r="R10" t="n">
-        <v>3721</v>
+        <v>6522</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1572,31 +1572,31 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:32</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:08:10</t>
         </is>
       </c>
       <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="R14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1655,28 +1655,28 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:56</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:04:10</t>
+          <t>00:03:20</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:02:26</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2145,19 +2145,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>256</v>
+        <v>909</v>
       </c>
       <c r="R21" t="n">
-        <v>7632</v>
+        <v>7000</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2228,34 +2228,34 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="R22" t="n">
-        <v>6154</v>
+        <v>7143</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2311,34 +2311,34 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:03:05</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="N23" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="R23" t="n">
-        <v>3750</v>
+        <v>5203</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2394,34 +2394,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:57</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>4932</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2477,31 +2477,31 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:36</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:01:36</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="R25" t="n">
-        <v>3077</v>
+        <v>4754</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7500</v>
+        <v>6667</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2809,34 +2809,34 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:05:22</t>
+          <t>00:05:17</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:02:46</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>563</v>
+        <v>177</v>
       </c>
       <c r="N29" t="n">
-        <v>696</v>
+        <v>222</v>
       </c>
       <c r="O29" t="n">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1986</v>
+        <v>2127</v>
       </c>
       <c r="R29" t="n">
-        <v>4652</v>
+        <v>4294</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2892,40 +2892,40 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:02:23</t>
+          <t>00:02:57</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:01:01</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>843</v>
+        <v>511</v>
       </c>
       <c r="N30" t="n">
-        <v>997</v>
+        <v>584</v>
       </c>
       <c r="O30" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>787</v>
+        <v>515</v>
       </c>
       <c r="R30" t="n">
-        <v>4256</v>
+        <v>5949</v>
       </c>
       <c r="S30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T30" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>732</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2966,37 +2966,37 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>00:15:58</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="n">
-        <v>3</v>
-      </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>6667</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,31 +3058,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N32" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2105</v>
+        <v>10</v>
       </c>
       <c r="R32" t="n">
-        <v>2667</v>
+        <v>10000</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3141,34 +3141,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>00:02:27</t>
+          <t>00:04:24</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:05:40</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="N33" t="n">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="O33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137</v>
+        <v>3095</v>
       </c>
       <c r="R33" t="n">
-        <v>3261</v>
+        <v>1207</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3333</v>
+        <v>8000</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,43 +3298,43 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>00:02:24</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2727</v>
+        <v>8800</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,40 +3381,40 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:50</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:09:53</t>
+          <t>00:09:58</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:04:57</t>
+          <t>00:03:10</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="N36" t="n">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="O36" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>3282</v>
+        <v>1101</v>
       </c>
       <c r="R36" t="n">
-        <v>1769</v>
+        <v>2396</v>
       </c>
       <c r="S36" t="n">
         <v>2</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3473,34 +3473,34 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:14:21</t>
+          <t>00:02:17</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:03:21</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="O37" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>625</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S37" t="n">
         <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2090</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2222</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3554,40 +3554,40 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:02:53</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>706</v>
+        <v>306</v>
       </c>
       <c r="O38" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="P38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>1105</v>
+        <v>918</v>
       </c>
       <c r="R38" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>530</v>
+        <v>227</v>
       </c>
       <c r="U38" t="n">
-        <v>7507</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3635,40 +3635,40 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:01:53</t>
+          <t>00:02:43</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="N39" t="n">
-        <v>521</v>
+        <v>246</v>
       </c>
       <c r="O39" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>732</v>
+        <v>528</v>
       </c>
       <c r="R39" t="n">
-        <v>3145</v>
+        <v>4662</v>
       </c>
       <c r="S39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="U39" t="n">
-        <v>4434</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3716,40 +3716,40 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:03:01</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:01:50</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="N40" t="n">
-        <v>371</v>
+        <v>176</v>
       </c>
       <c r="O40" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>732</v>
+        <v>568</v>
       </c>
       <c r="R40" t="n">
-        <v>2983</v>
+        <v>3810</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="U40" t="n">
-        <v>4340</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3799,40 +3799,40 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>434</v>
+        <v>239</v>
       </c>
       <c r="N41" t="n">
-        <v>648</v>
+        <v>336</v>
       </c>
       <c r="O41" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>358</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5847</v>
+      </c>
+      <c r="S41" t="n">
         <v>2</v>
       </c>
-      <c r="Q41" t="n">
-        <v>495</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4907</v>
-      </c>
-      <c r="S41" t="n">
-        <v>6</v>
-      </c>
       <c r="T41" t="n">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="U41" t="n">
-        <v>2778</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3882,34 +3882,34 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7761</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,34 +3965,34 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="N43" t="n">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5041</v>
+        <v>9388</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4046,40 +4046,40 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5899</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>4674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4129,34 +4129,34 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="N45" t="n">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5067</v>
+        <v>9459</v>
       </c>
       <c r="S45" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:08</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>6667</v>
+        <v>7500</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4378,34 +4378,34 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:04:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N48" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>8947</v>
+      </c>
+      <c r="S48" t="n">
         <v>1</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>732</v>
-      </c>
-      <c r="R48" t="n">
-        <v>3077</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4461,34 +4461,34 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N49" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>5313</v>
+        <v>9048</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,40 +4535,40 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:51</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:05:29</t>
+          <t>00:07:22</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:05:47</t>
+          <t>00:03:07</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N50" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="O50" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2644</v>
+        <v>2667</v>
       </c>
       <c r="R50" t="n">
-        <v>986</v>
+        <v>1538</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:02:47</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:00:14</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N51" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>4286</v>
+        <v>8889</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>5556</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:02:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="N54" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="O54" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>6623</v>
+        <v>6452</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4959,31 +4959,31 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>00:02:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:00:03</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>5714</v>
+        <v>10000</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5042,34 +5042,34 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>6667</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,31 +5208,31 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:07:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:00:24</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N58" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>5926</v>
+        <v>7500</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5282,49 +5282,49 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>00:01:13</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>00:00:57</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>57</v>
+      </c>
+      <c r="N59" t="n">
+        <v>69</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>435</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3860</v>
+      </c>
+      <c r="S59" t="n">
         <v>1</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>00:00:22</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>00:02:18</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>00:00:50</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>86</v>
-      </c>
-      <c r="N59" t="n">
-        <v>119</v>
-      </c>
-      <c r="O59" t="n">
-        <v>15</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1261</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3721</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
       <c r="T59" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U59" t="n">
-        <v>1429</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,34 +5374,34 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:08:13</t>
+          <t>00:01:55</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:04:33</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N60" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="O60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>1667</v>
+        <v>1429</v>
       </c>
       <c r="R60" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5457,40 +5457,40 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:06:14</t>
+          <t>00:05:39</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:02:05</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N61" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>435</v>
+        <v>870</v>
       </c>
       <c r="R61" t="n">
-        <v>3864</v>
+        <v>4032</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:02:21</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="N62" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="O62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>755</v>
+        <v>833</v>
       </c>
       <c r="R62" t="n">
-        <v>3469</v>
+        <v>10000</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -577,45 +577,45 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:02</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>446</v>
+        <v>1.123</v>
       </c>
       <c r="N2" t="n">
-        <v>452</v>
+        <v>1.128</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>8028</v>
+        <v>7166</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6667</v>
+        <v>8947</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -829,34 +829,34 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="N5" t="n">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R5" t="n">
-        <v>8734</v>
+        <v>7551</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -912,34 +912,34 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="N6" t="n">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="R6" t="n">
-        <v>7432</v>
+        <v>7568</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -995,31 +995,31 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:12</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="N7" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="R7" t="n">
-        <v>9545</v>
+        <v>9342</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>00:01:46</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:01:57</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="N8" t="n">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="O8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>829</v>
+        <v>280</v>
       </c>
       <c r="R8" t="n">
-        <v>2651</v>
+        <v>6949</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1161,31 +1161,31 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:04:52</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:02:35</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="N9" t="n">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>390</v>
+        <v>1223</v>
       </c>
       <c r="R9" t="n">
-        <v>3716</v>
+        <v>2883</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1244,34 +1244,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:09:01</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:02:39</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N10" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="O10" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1373</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3636</v>
+      </c>
+      <c r="S10" t="n">
         <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>417</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6522</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1572,28 +1572,28 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>00:03:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>00:08:10</t>
+          <t>00:03:56</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1655,34 +1655,34 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>00:04:56</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>00:03:20</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:33</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2145,34 +2145,34 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>00:00:38</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>00:00:35</t>
-        </is>
-      </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1667</v>
+      </c>
+      <c r="S21" t="n">
         <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>909</v>
-      </c>
-      <c r="R21" t="n">
-        <v>7000</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2228,31 +2228,31 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N22" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7143</v>
+        <v>5000</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2311,34 +2311,34 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:03:05</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>388</v>
+        <v>1667</v>
       </c>
       <c r="R23" t="n">
-        <v>5203</v>
+        <v>8000</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2394,34 +2394,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>00:03:57</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4932</v>
+        <v>10000</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2477,31 +2477,31 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>00:02:36</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4754</v>
+        <v>3333</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:19</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>6667</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2809,34 +2809,34 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>00:05:17</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="N29" t="n">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="O29" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2127</v>
+        <v>52</v>
       </c>
       <c r="R29" t="n">
-        <v>4294</v>
+        <v>8617</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2892,40 +2892,40 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>00:02:57</t>
+          <t>00:02:52</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:01:01</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="N30" t="n">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="O30" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>515</v>
+        <v>643</v>
       </c>
       <c r="R30" t="n">
-        <v>5949</v>
+        <v>5021</v>
       </c>
       <c r="S30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="U30" t="n">
-        <v>702</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2966,37 +2966,37 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:39</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:36</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4286</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3058,19 +3058,19 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:02:53</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>909</v>
       </c>
       <c r="R32" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3141,34 +3141,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>00:04:24</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>00:05:40</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N33" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="O33" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3095</v>
+        <v>758</v>
       </c>
       <c r="R33" t="n">
-        <v>1207</v>
+        <v>7213</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3224,31 +3224,31 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:09:36</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R34" t="n">
-        <v>8000</v>
+        <v>6111</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3298,43 +3298,43 @@
         </is>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>00:02:15</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>00:01:49</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>40</v>
+      </c>
+      <c r="N35" t="n">
+        <v>42</v>
+      </c>
+      <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>00:00:34</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>00:00:13</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>25</v>
-      </c>
-      <c r="N35" t="n">
-        <v>26</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="R35" t="n">
-        <v>8800</v>
+        <v>5000</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3381,43 +3381,43 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>00:02:50</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:09:58</t>
+          <t>00:14:09</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:03:10</t>
+          <t>00:07:12</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N36" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="O36" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1101</v>
+        <v>3650</v>
       </c>
       <c r="R36" t="n">
-        <v>2396</v>
+        <v>2045</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3473,34 +3473,34 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:08:49</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:03:21</t>
+          <t>00:04:50</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>625</v>
+        <v>2537</v>
       </c>
       <c r="R37" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3559,35 +3559,35 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="N38" t="n">
-        <v>306</v>
+        <v>483</v>
       </c>
       <c r="O38" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>918</v>
+        <v>858</v>
       </c>
       <c r="R38" t="n">
-        <v>5000</v>
+        <v>2826</v>
       </c>
       <c r="S38" t="n">
         <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="U38" t="n">
-        <v>7418</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3635,40 +3635,40 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>00:02:43</t>
+          <t>00:02:49</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="N39" t="n">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="O39" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>528</v>
+        <v>685</v>
       </c>
       <c r="R39" t="n">
-        <v>4662</v>
+        <v>3052</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="U39" t="n">
-        <v>3984</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3716,40 +3716,40 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>00:03:01</t>
+          <t>00:03:05</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="N40" t="n">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="O40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="R40" t="n">
-        <v>3810</v>
+        <v>3652</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="U40" t="n">
-        <v>4659</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3799,40 +3799,40 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="N41" t="n">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="O41" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="R41" t="n">
-        <v>5847</v>
+        <v>4790</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="U41" t="n">
-        <v>25</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3887,14 +3887,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:08</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3965,34 +3965,34 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:27</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="R43" t="n">
-        <v>9388</v>
+        <v>6610</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4046,40 +4046,40 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5604</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="45">
@@ -4129,34 +4129,34 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="N45" t="n">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="R45" t="n">
-        <v>9459</v>
+        <v>6739</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N47" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4378,31 +4378,31 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:33</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N48" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="R48" t="n">
-        <v>8947</v>
+        <v>6774</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N49" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>9048</v>
+        <v>8125</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4535,40 +4535,40 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>00:02:51</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:07:22</t>
+          <t>00:09:30</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:03:07</t>
+          <t>00:08:02</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N50" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="O50" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2667</v>
+        <v>50</v>
       </c>
       <c r="R50" t="n">
-        <v>1538</v>
+        <v>556</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4627,31 +4627,31 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:57</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N51" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="R51" t="n">
-        <v>8889</v>
+        <v>6129</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4876,34 +4876,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:53</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N54" t="n">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="R54" t="n">
-        <v>6452</v>
+        <v>5000</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5047,14 +5047,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5066,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5208,31 +5208,31 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:02</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N58" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="R58" t="n">
-        <v>7500</v>
+        <v>1667</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5291,40 +5291,40 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N59" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="R59" t="n">
-        <v>3860</v>
+        <v>3286</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="U59" t="n">
-        <v>1304</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5374,34 +5374,34 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>00:01:55</t>
+          <t>00:09:07</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:06:25</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N60" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
       <c r="Q60" t="n">
-        <v>1429</v>
+        <v>1765</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5457,40 +5457,40 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:05:39</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:02:05</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N61" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>4032</v>
+        <v>4643</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:02:29</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N62" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>833</v>
+        <v>1143</v>
       </c>
       <c r="R62" t="n">
-        <v>10000</v>
+        <v>5806</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>

--- a/service/match&timeframe.xlsx
+++ b/service/match&timeframe.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>00:00:02</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -587,14 +587,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:13</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.123</v>
+        <v>1.237</v>
       </c>
       <c r="N2" t="n">
-        <v>1.128</v>
+        <v>1.242</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -603,13 +603,13 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>7166</v>
+        <v>7461</v>
       </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8947</v>
+        <v>8095</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -834,14 +834,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="N5" t="n">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -850,13 +850,13 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R5" t="n">
-        <v>7551</v>
+        <v>7815</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -917,14 +917,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="N6" t="n">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
@@ -933,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R6" t="n">
-        <v>7568</v>
+        <v>7739</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N7" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="R7" t="n">
-        <v>9342</v>
+        <v>9268</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1083,14 +1083,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="N8" t="n">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="O8" t="n">
         <v>7</v>
@@ -1099,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="R8" t="n">
-        <v>6949</v>
+        <v>6679</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>756</v>
+        <v>6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1166,14 +1166,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>00:02:35</t>
+          <t>00:02:21</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="N9" t="n">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O9" t="n">
         <v>23</v>
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1223</v>
+        <v>1117</v>
       </c>
       <c r="R9" t="n">
-        <v>2883</v>
+        <v>3388</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>00:02:39</t>
+          <t>00:02:12</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N10" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O10" t="n">
         <v>7</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1373</v>
+        <v>1148</v>
       </c>
       <c r="R10" t="n">
-        <v>3636</v>
+        <v>4444</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5000</v>
+        <v>4783</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2565,14 +2565,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6667</v>
+        <v>6316</v>
       </c>
       <c r="S26" t="n">
         <v>2</v>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2814,14 +2814,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N29" t="n">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -2830,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R29" t="n">
-        <v>8617</v>
+        <v>8725</v>
       </c>
       <c r="S29" t="n">
         <v>9</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2897,14 +2897,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="N30" t="n">
-        <v>658</v>
+        <v>716</v>
       </c>
       <c r="O30" t="n">
         <v>42</v>
@@ -2913,19 +2913,19 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>643</v>
+        <v>591</v>
       </c>
       <c r="R30" t="n">
-        <v>5021</v>
+        <v>5464</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T30" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U30" t="n">
-        <v>1079</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>00:02:36</t>
+          <t>00:02:06</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
         <v>3</v>
@@ -2996,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>4286</v>
+        <v>3750</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3229,14 +3229,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N34" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O34" t="n">
         <v>2</v>
@@ -3245,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>870</v>
       </c>
       <c r="R34" t="n">
-        <v>6111</v>
+        <v>6667</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3312,14 +3312,14 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N35" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
@@ -3328,10 +3328,10 @@
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="R35" t="n">
-        <v>5000</v>
+        <v>5556</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3390,19 +3390,19 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>00:14:09</t>
+          <t>00:14:02</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>00:07:12</t>
+          <t>00:06:29</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N36" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O36" t="n">
         <v>50</v>
@@ -3411,10 +3411,10 @@
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>3650</v>
+        <v>3401</v>
       </c>
       <c r="R36" t="n">
-        <v>2045</v>
+        <v>2755</v>
       </c>
       <c r="S36" t="n">
         <v>3</v>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3478,14 +3478,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>00:04:50</t>
+          <t>00:04:18</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N37" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O37" t="n">
         <v>17</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2537</v>
+        <v>2267</v>
       </c>
       <c r="R37" t="n">
-        <v>2800</v>
+        <v>3103</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3559,14 +3559,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N38" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="O38" t="n">
         <v>41</v>
@@ -3575,19 +3575,19 @@
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="R38" t="n">
-        <v>2826</v>
+        <v>3053</v>
       </c>
       <c r="S38" t="n">
         <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="U38" t="n">
-        <v>7164</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="39">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3640,14 +3640,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:01:52</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="N39" t="n">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="O39" t="n">
         <v>23</v>
@@ -3656,19 +3656,19 @@
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="R39" t="n">
-        <v>3052</v>
+        <v>3313</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U39" t="n">
-        <v>45</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="40">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3721,14 +3721,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N40" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O40" t="n">
         <v>13</v>
@@ -3737,19 +3737,19 @@
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="R40" t="n">
-        <v>3652</v>
+        <v>3814</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U40" t="n">
-        <v>4798</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="41">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3804,14 +3804,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>00:01:31</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="N41" t="n">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="O41" t="n">
         <v>19</v>
@@ -3820,19 +3820,19 @@
         <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="R41" t="n">
-        <v>4790</v>
+        <v>5311</v>
       </c>
       <c r="S41" t="n">
         <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="U41" t="n">
-        <v>2725</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="42">
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N42" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8750</v>
+        <v>8824</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3970,14 +3970,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N43" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O43" t="n">
         <v>1</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="R43" t="n">
-        <v>6610</v>
+        <v>6875</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4051,14 +4051,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="N44" t="n">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O44" t="n">
         <v>2</v>
@@ -4067,19 +4067,19 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="R44" t="n">
-        <v>5604</v>
+        <v>6330</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
         <v>64</v>
       </c>
       <c r="U44" t="n">
-        <v>4025</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4134,14 +4134,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N45" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O45" t="n">
         <v>3</v>
@@ -4150,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R45" t="n">
-        <v>6739</v>
+        <v>6809</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4300,14 +4300,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4319,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>5000</v>
+        <v>4286</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4383,14 +4383,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O48" t="n">
         <v>1</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="R48" t="n">
-        <v>6774</v>
+        <v>6970</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>8125</v>
+        <v>8235</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -4544,31 +4544,31 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>00:09:30</t>
+          <t>00:09:22</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>00:08:02</t>
+          <t>00:07:58</t>
         </is>
       </c>
       <c r="M50" t="n">
+        <v>37</v>
+      </c>
+      <c r="N50" t="n">
+        <v>70</v>
+      </c>
+      <c r="O50" t="n">
         <v>36</v>
       </c>
-      <c r="N50" t="n">
-        <v>66</v>
-      </c>
-      <c r="O50" t="n">
-        <v>33</v>
-      </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>5143</v>
       </c>
       <c r="R50" t="n">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -4632,14 +4632,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O51" t="n">
         <v>1</v>
@@ -4648,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="R51" t="n">
-        <v>6129</v>
+        <v>6250</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -4881,14 +4881,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N54" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O54" t="n">
         <v>8</v>
@@ -4897,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>777</v>
+        <v>714</v>
       </c>
       <c r="R54" t="n">
         <v>5000</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -4964,15 +4964,15 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="M55" t="n">
+        <v>17</v>
+      </c>
+      <c r="N55" t="n">
         <v>16</v>
       </c>
-      <c r="N55" t="n">
-        <v>15</v>
-      </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>3750</v>
+        <v>3529</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5213,14 +5213,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
         <v>1</v>
@@ -5229,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1429</v>
+        <v>1250</v>
       </c>
       <c r="R58" t="n">
-        <v>1667</v>
+        <v>2857</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5296,14 +5296,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N59" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O59" t="n">
         <v>4</v>
@@ -5312,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="R59" t="n">
-        <v>3286</v>
+        <v>3553</v>
       </c>
       <c r="S59" t="n">
         <v>2</v>
@@ -5324,7 +5324,7 @@
         <v>21</v>
       </c>
       <c r="U59" t="n">
-        <v>2211</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="60">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5379,14 +5379,14 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>00:06:25</t>
+          <t>00:05:41</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N60" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O60" t="n">
         <v>3</v>
@@ -5395,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1765</v>
+        <v>1579</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5462,14 +5462,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:01:04</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N61" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>4643</v>
+        <v>5000</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
